--- a/BackTest/2020-01-14 BackTest BTC.xlsx
+++ b/BackTest/2020-01-14 BackTest BTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>8.328266579999998</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>13.62039161</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>15.58175593</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>15.58175593</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>9.297355960000001</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>9.44705596</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>9.17745596</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>9.17745596</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>10.28135596</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>12.18362695</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>18.96192695</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>20.98782695</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>26.61122695</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>32.90542698</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>36.42507297</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>35.24227297</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>35.24227297</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>42.81052698000001</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>49.41572698</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>49.88552698</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>45.76672698</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>45.76672698</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>45.76762698</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>43.17962698</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>43.48592698</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>37.44882698</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>36.86502698</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>37.01132698</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>28.61832698</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>19.22772698</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>19.22772698</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>19.22772698</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>11.74852698</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>14.73762698</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>11.15532785</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>11.15532785</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>3.798427850000002</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-0.6124721499999977</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>6.399919710000002</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>4.399419710000002</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>4.399419710000002</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>7.918836890000001</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>10.27562828</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>10.42322828</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>10.30470374</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>10.33827887</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>0.1002723100000015</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-12.55451466</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-3.963797989999998</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-3.247597989999998</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>0.5748020100000018</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-63.67640125</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-62.28920125000001</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-61.22992646000001</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-62.68852646000001</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-57.91052646000001</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-57.91032646000001</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-57.96552646000001</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-63.95992646000001</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-58.65326236</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-58.22060943</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-58.61840943</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-59.20730943</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-59.35600948</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-59.35600948</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-59.50170948</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-58.16020948000001</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-57.20357061000001</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-57.20357061000001</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-57.30809568000001</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-55.65409568000001</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-57.59839568000001</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-57.52849568000001</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-57.45549568000001</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-57.80759568000001</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-57.98509568000001</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-57.98509568000001</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-57.98509568000001</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-64.23267093</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-65.06147093</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-63.35219568</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-63.48409568</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-63.21289568</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-63.22279568</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-63.26859568</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-63.1336335</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-63.10627123</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-63.10627123</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-63.11327123</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-63.11285432</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-63.29525432000001</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-63.27165432</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-63.38885432</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-63.22435432</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-67.85015432</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-67.93455432</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-67.93455432</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-67.29955432</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-67.29955432</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-67.29955432</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-66.55135432</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-67.01195432</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-68.19015432</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-67.92185432000001</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-67.92025432000001</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-67.90275432000001</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-67.90275432000001</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-68.73275188000001</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-68.73275188000001</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-67.72199971000001</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-67.15119971</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-66.41909971</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-63.80209970999999</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-66.62199971</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-61.63461805999999</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-61.63611805999999</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-62.61031806</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-62.54911806</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-62.54911806</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-62.54911806</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-62.60511806</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-62.60511806</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-62.60511806</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-62.62181806</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-62.62181806</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-62.60251805999999</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-62.87141806</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-62.03241806</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-62.03241806</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-60.53991806</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-61.19191806</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-61.17531806</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-61.17531806</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-61.17531806</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-61.16651806</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-61.16651806</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-61.16651806</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-64.10099619</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-63.11459619</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-63.11459619</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-63.12339619</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-62.92719619</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-62.92719619</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-63.51669619</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-63.16869619000001</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-63.16869619000001</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-63.17769619000001</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-63.13419619</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-63.13419619</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-63.13419619</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-63.13419619</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-61.72539619</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-61.56729619000001</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-62.26659623</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-58.17959623</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-58.31259623</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-58.30889623</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-58.30889623</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-58.30889623</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-57.86269623</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-58.01169623000001</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-58.01169623000001</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-58.01169623000001</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-58.01169623000001</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-58.01169623000001</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-57.81459671</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-59.57242206</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-62.73612206</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-62.95562206</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-62.96202206</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-62.35832205999999</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-61.06969917999999</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-61.07614306999999</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-61.08064306999999</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-61.08064306999999</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-61.08064306999999</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-56.42034834</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-55.69395732</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-55.69395732</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-57.90775731999999</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-57.70475731999999</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-57.70475731999999</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-57.70475731999999</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-57.90715731999999</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-57.90715731999999</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-57.88615731999999</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-57.93705731999999</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-57.93705731999999</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-57.93193251999999</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-58.22215730999999</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-61.86125731</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-61.73135731</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-58.12485731</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-58.21715731</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-58.21715731</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-58.58155731000001</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-58.58155731000001</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-58.09715731000001</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-59.09715731000001</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-61.63965731</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-61.63965731</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-61.63965731</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-61.63965731</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-62.65165731</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-62.64385731</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-61.90995729</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-61.90995729</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-57.92190407</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-53.66700407</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-53.66700407</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-53.66700407</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-53.66700407</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-54.45460407</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-50.80194003</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-50.93494003000001</v>
       </c>
       <c r="H445" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-48.21256694000001</v>
       </c>
       <c r="H446" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-47.58451174000001</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-48.03831174000001</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-47.60001174000001</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-42.70216921000002</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-37.93675773000002</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-37.93675773000002</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-39.10450298000002</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-36.26270298000002</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-31.65950298000002</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-34.89200298000002</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-43.64280298000002</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-47.12972232000002</v>
       </c>
       <c r="H458" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-55.74332233000002</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-55.59122233000002</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-55.76522233000002</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-53.93516367000002</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-54.90345761000003</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-54.90345761000003</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-54.03775761000003</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-52.90645761000003</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-50.25757343000002</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-54.71967343000002</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-54.61657343000002</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-54.75577343000003</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-53.31677339000002</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-53.31677339000002</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-52.48207339000002</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-53.28557339000002</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-52.25757339000003</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-54.92767339000002</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-55.32615749000002</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-55.32615749000002</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-50.66015749000002</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-39.49241767999997</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-40.30081767999997</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-41.40521767999996</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-40.56091767999997</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-40.19571767999997</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-33.97509292999997</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-34.13089292999997</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-33.80109292999997</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-35.26039292999997</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-35.17379292999997</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-32.48025897999997</v>
       </c>
       <c r="H540" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-31.97985897999997</v>
       </c>
       <c r="H541" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-33.43815897999997</v>
       </c>
       <c r="H542" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-33.43815897999997</v>
       </c>
       <c r="H543" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-33.12440593999997</v>
       </c>
       <c r="H544" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-33.12440593999997</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-33.12440593999997</v>
       </c>
       <c r="H546" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-32.10720593999996</v>
       </c>
       <c r="H547" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-32.10720593999996</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>-28.75625897999996</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-29.83245897999996</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-29.21945897999996</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-29.21945897999996</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-25.65405897999996</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-26.33135897999996</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-25.92855897999996</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-23.47005897999996</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-23.47005897999996</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-20.46955897999996</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-20.46955897999996</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>-19.73485897999996</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>-21.97124924999996</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-19.29473956999997</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-22.51873956999997</v>
       </c>
       <c r="H563" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-29.63690118999997</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-22.35390118999997</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-20.56410118999997</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-16.96289645999997</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-19.06849645999997</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-19.73119645999997</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-19.83119645999997</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-19.83119645999997</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-19.67779645999997</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>-19.67779645999997</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-18.97025004999997</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-15.56003534999997</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-20.73923534999997</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>-20.73923534999997</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>-21.50433534999997</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>-21.73643534999997</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>-21.88445995999997</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>-20.74175995999996</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>-21.32395995999996</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>-21.32395995999996</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>-20.18175995999997</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19690,7 +19690,7 @@
         <v>-20.20155995999997</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>-20.46765995999997</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>-19.90245995999997</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>-18.80543576999997</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>-18.98913576999997</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>-24.52440377999997</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>-21.47060377999997</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>-21.47060377999997</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>-21.53380377999997</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>-28.20560377999997</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>-28.08400377999997</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>-28.52150377999997</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>-28.72560377999997</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>-28.90610377999997</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>-28.90610377999997</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>-28.90610377999997</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-28.62777543999997</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-29.43697543999997</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>-29.43697543999997</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-29.43697543999997</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-30.91117543999997</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-30.91117543999997</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-30.91117543999997</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-32.58937543999996</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-31.74722301999996</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-37.72682301999996</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>-37.72682301999996</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>-29.41602301999996</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>-24.98012301999996</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-28.55992301999996</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-26.97992301999996</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-26.97992301999996</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-33.78002301999996</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>-28.03458114999996</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-28.66940813999996</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>-26.74098255999996</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-31.17933524999997</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-33.73959754999996</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-47.71129485999997</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-623.75497688</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21571,7 +21571,7 @@
         <v>-571.2174262999998</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-570.1777321599999</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>-570.0365684599999</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -26092,11 +26092,17 @@
         <v>-663.9688803699997</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
-      </c>
-      <c r="I779" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I779" t="n">
+        <v>9122000</v>
+      </c>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26125,11 +26131,17 @@
         <v>-660.5413803699997</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
-      </c>
-      <c r="I780" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I780" t="n">
+        <v>9118000</v>
+      </c>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26158,11 +26170,17 @@
         <v>-659.3036803699997</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
-      </c>
-      <c r="I781" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I781" t="n">
+        <v>9124000</v>
+      </c>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26191,11 +26209,17 @@
         <v>-657.9169900599998</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
-      </c>
-      <c r="I782" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I782" t="n">
+        <v>9125000</v>
+      </c>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26224,11 +26248,17 @@
         <v>-657.9169900599998</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
-      </c>
-      <c r="I783" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I783" t="n">
+        <v>9127000</v>
+      </c>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26257,11 +26287,17 @@
         <v>-666.2143900599998</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
-      </c>
-      <c r="I784" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I784" t="n">
+        <v>9127000</v>
+      </c>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26294,7 +26330,11 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26327,7 +26367,11 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26360,7 +26404,11 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26393,7 +26441,11 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26426,7 +26478,11 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26459,7 +26515,11 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26492,7 +26552,11 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26525,7 +26589,11 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26554,11 +26622,17 @@
         <v>-678.3686597799998</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
-      </c>
-      <c r="I793" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I793" t="n">
+        <v>9113000</v>
+      </c>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26587,11 +26661,17 @@
         <v>-686.0507597799998</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
-      </c>
-      <c r="I794" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I794" t="n">
+        <v>9110000</v>
+      </c>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26620,11 +26700,17 @@
         <v>-686.0507597799998</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
-      </c>
-      <c r="I795" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I795" t="n">
+        <v>9109000</v>
+      </c>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26653,11 +26739,17 @@
         <v>-688.5335597799998</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
-      </c>
-      <c r="I796" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I796" t="n">
+        <v>9109000</v>
+      </c>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -26686,11 +26778,17 @@
         <v>-690.8460597799998</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
-      </c>
-      <c r="I797" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I797" t="n">
+        <v>9105000</v>
+      </c>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -26719,11 +26817,17 @@
         <v>-685.1335782499998</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
-      </c>
-      <c r="I798" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I798" t="n">
+        <v>9101000</v>
+      </c>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -26752,11 +26856,17 @@
         <v>-684.1578597799999</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
-      </c>
-      <c r="I799" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I799" t="n">
+        <v>9109000</v>
+      </c>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -26785,11 +26895,17 @@
         <v>-684.4608597499998</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
-      </c>
-      <c r="I800" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I800" t="n">
+        <v>9110000</v>
+      </c>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -26818,7 +26934,7 @@
         <v>-684.4608597499998</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I801" t="n">
         <v>9109000</v>
@@ -26826,7 +26942,7 @@
       <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L801" t="n">
@@ -26857,7 +26973,7 @@
         <v>-681.0218903799998</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I802" t="n">
         <v>9109000</v>
@@ -26896,9 +27012,11 @@
         <v>-681.0218903799998</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
-      </c>
-      <c r="I803" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I803" t="n">
+        <v>9117000</v>
+      </c>
       <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
@@ -26933,9 +27051,11 @@
         <v>-679.2921374599998</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
-      </c>
-      <c r="I804" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I804" t="n">
+        <v>9117000</v>
+      </c>
       <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
@@ -26970,9 +27090,11 @@
         <v>-679.9573374599998</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
-      </c>
-      <c r="I805" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I805" t="n">
+        <v>9118000</v>
+      </c>
       <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
@@ -27007,7 +27129,7 @@
         <v>-680.5147238199999</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I806" t="n">
         <v>9111000</v>
@@ -27046,7 +27168,7 @@
         <v>-678.9582238199998</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I807" t="n">
         <v>9110000</v>
@@ -27085,7 +27207,7 @@
         <v>-678.5176238199998</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I808" t="n">
         <v>9114000</v>
@@ -27124,7 +27246,7 @@
         <v>-680.2653375699998</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I809" t="n">
         <v>9120000</v>
@@ -27163,7 +27285,7 @@
         <v>-681.3581375699998</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I810" t="n">
         <v>9118000</v>
@@ -27202,7 +27324,7 @@
         <v>-679.6292517399999</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I811" t="n">
         <v>9114000</v>
@@ -27241,7 +27363,7 @@
         <v>-679.0252570299998</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I812" t="n">
         <v>9122000</v>
@@ -27280,7 +27402,7 @@
         <v>-677.2982570299998</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I813" t="n">
         <v>9124000</v>
@@ -27319,7 +27441,7 @@
         <v>-675.0163570299999</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I814" t="n">
         <v>9126000</v>
@@ -27358,9 +27480,11 @@
         <v>-671.5676570299999</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
-      </c>
-      <c r="I815" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I815" t="n">
+        <v>9128000</v>
+      </c>
       <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
@@ -28505,9 +28629,11 @@
         <v>-665.9167923999996</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I846" t="n">
+        <v>9137000</v>
+      </c>
       <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
@@ -28542,9 +28668,11 @@
         <v>-667.6181923999997</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>9138000</v>
+      </c>
       <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
@@ -28579,9 +28707,11 @@
         <v>-666.5813923999997</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
-      </c>
-      <c r="I848" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I848" t="n">
+        <v>9131000</v>
+      </c>
       <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
@@ -28616,9 +28746,11 @@
         <v>-666.6594923999996</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
-      </c>
-      <c r="I849" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I849" t="n">
+        <v>9142000</v>
+      </c>
       <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
@@ -28653,9 +28785,11 @@
         <v>-666.6594923999996</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
-      </c>
-      <c r="I850" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I850" t="n">
+        <v>9132000</v>
+      </c>
       <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
@@ -28690,9 +28824,11 @@
         <v>-668.9289923999996</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
-      </c>
-      <c r="I851" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I851" t="n">
+        <v>9132000</v>
+      </c>
       <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
@@ -28727,9 +28863,11 @@
         <v>-675.5384923999997</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
-      </c>
-      <c r="I852" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I852" t="n">
+        <v>9130000</v>
+      </c>
       <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
@@ -28764,9 +28902,11 @@
         <v>-676.9076202499997</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
-      </c>
-      <c r="I853" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I853" t="n">
+        <v>9124000</v>
+      </c>
       <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
@@ -28801,9 +28941,11 @@
         <v>-676.9076202499997</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
-      </c>
-      <c r="I854" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I854" t="n">
+        <v>9123000</v>
+      </c>
       <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr">
         <is>
@@ -28838,9 +28980,11 @@
         <v>-679.7346202499997</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
-      </c>
-      <c r="I855" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I855" t="n">
+        <v>9123000</v>
+      </c>
       <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
@@ -28875,9 +29019,11 @@
         <v>-680.0546202499997</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
-      </c>
-      <c r="I856" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I856" t="n">
+        <v>9119000</v>
+      </c>
       <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
@@ -28912,9 +29058,11 @@
         <v>-681.3626827499997</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
-      </c>
-      <c r="I857" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I857" t="n">
+        <v>9117000</v>
+      </c>
       <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
@@ -28949,9 +29097,11 @@
         <v>-681.3626827499997</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
-      </c>
-      <c r="I858" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I858" t="n">
+        <v>9115000</v>
+      </c>
       <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
@@ -28986,9 +29136,11 @@
         <v>-681.3626827499997</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
-      </c>
-      <c r="I859" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I859" t="n">
+        <v>9115000</v>
+      </c>
       <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr">
         <is>
@@ -29023,9 +29175,11 @@
         <v>-682.4077827499998</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
-      </c>
-      <c r="I860" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I860" t="n">
+        <v>9115000</v>
+      </c>
       <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr">
         <is>
@@ -29060,9 +29214,11 @@
         <v>-678.3887827499998</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
-      </c>
-      <c r="I861" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I861" t="n">
+        <v>9114000</v>
+      </c>
       <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr">
         <is>
@@ -29097,9 +29253,11 @@
         <v>-679.9340827499998</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
-      </c>
-      <c r="I862" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I862" t="n">
+        <v>9122000</v>
+      </c>
       <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
@@ -29134,9 +29292,11 @@
         <v>-680.5157827499997</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
-      </c>
-      <c r="I863" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I863" t="n">
+        <v>9120000</v>
+      </c>
       <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr">
         <is>
@@ -29171,9 +29331,11 @@
         <v>-697.8160827499997</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
-      </c>
-      <c r="I864" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I864" t="n">
+        <v>9119000</v>
+      </c>
       <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr">
         <is>
@@ -29208,9 +29370,11 @@
         <v>-702.7229110699998</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
-      </c>
-      <c r="I865" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I865" t="n">
+        <v>9105000</v>
+      </c>
       <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr">
         <is>
@@ -29245,9 +29409,11 @@
         <v>-701.2342150499998</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
-      </c>
-      <c r="I866" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I866" t="n">
+        <v>9101000</v>
+      </c>
       <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
@@ -29282,9 +29448,11 @@
         <v>-698.3026150499998</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
-      </c>
-      <c r="I867" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I867" t="n">
+        <v>9109000</v>
+      </c>
       <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
@@ -29319,7 +29487,7 @@
         <v>-704.1928431899997</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I868" t="n">
         <v>9110000</v>
@@ -29358,7 +29526,7 @@
         <v>-707.3946431899998</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I869" t="n">
         <v>9107000</v>
@@ -29397,7 +29565,7 @@
         <v>-707.3946431899998</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I870" t="n">
         <v>9101000</v>
@@ -29436,7 +29604,7 @@
         <v>-706.6387479199998</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I871" t="n">
         <v>9101000</v>
@@ -29475,7 +29643,7 @@
         <v>-695.0102479199998</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I872" t="n">
         <v>9110000</v>
@@ -29514,7 +29682,7 @@
         <v>-691.7565479199998</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I873" t="n">
         <v>9117000</v>
@@ -29553,7 +29721,7 @@
         <v>-696.1419615299998</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I874" t="n">
         <v>9119000</v>
@@ -29592,7 +29760,7 @@
         <v>-703.1229896999997</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I875" t="n">
         <v>9117000</v>
@@ -29631,7 +29799,7 @@
         <v>-692.7288896999997</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I876" t="n">
         <v>9114000</v>
@@ -29670,7 +29838,7 @@
         <v>-690.5929178699997</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I877" t="n">
         <v>9115000</v>
@@ -29709,7 +29877,7 @@
         <v>-693.2122178699997</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I878" t="n">
         <v>9117000</v>
@@ -29748,7 +29916,7 @@
         <v>-691.9424178699996</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I879" t="n">
         <v>9110000</v>
@@ -29787,7 +29955,7 @@
         <v>-693.8703178699997</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I880" t="n">
         <v>9117000</v>
@@ -29826,7 +29994,7 @@
         <v>-692.6673178699997</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I881" t="n">
         <v>9116000</v>
@@ -29865,7 +30033,7 @@
         <v>-692.6673178699997</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I882" t="n">
         <v>9120000</v>
@@ -29904,7 +30072,7 @@
         <v>-691.1356178699997</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I883" t="n">
         <v>9120000</v>
@@ -29943,7 +30111,7 @@
         <v>-691.1356178699997</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I884" t="n">
         <v>9125000</v>
@@ -29982,9 +30150,11 @@
         <v>-690.8792990699997</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
-      </c>
-      <c r="I885" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I885" t="n">
+        <v>9125000</v>
+      </c>
       <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
@@ -30019,9 +30189,11 @@
         <v>-692.4833990699997</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
-      </c>
-      <c r="I886" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I886" t="n">
+        <v>9126000</v>
+      </c>
       <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
@@ -31277,9 +31449,11 @@
         <v>-674.6629147399995</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
-      </c>
-      <c r="I920" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I920" t="n">
+        <v>9134000</v>
+      </c>
       <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr">
         <is>
@@ -46055,6 +46229,6 @@
       <c r="M1319" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest BTC.xlsx
+++ b/BackTest/2020-01-14 BackTest BTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1012,7 +1012,7 @@
         <v>9.17745596</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>10.28135596</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>12.18362695</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>18.96192695</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>19.22772698</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>11.74852698</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>14.73762698</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>11.15532785</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>11.15532785</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>3.798427850000002</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-0.6124721499999977</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>6.399919710000002</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>4.399419710000002</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>4.399419710000002</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>7.918836890000001</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>10.27562828</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>10.42322828</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>10.30470374</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>10.33827887</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>0.1002723100000015</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-12.55451466</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-3.963797989999998</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-3.247597989999998</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>0.5748020100000018</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-63.67640125</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-62.28920125000001</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-61.22992646000001</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-62.68852646000001</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-59.53682646000001</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-57.91052646000001</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-57.91052646000001</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-57.91032646000001</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-57.96552646000001</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-61.85292646000001</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-63.86742646</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-63.92482646000001</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-64.15002646000001</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-63.97422646</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-63.97422646</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-60.52652646000002</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-60.53472660000001</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-60.71882660000001</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-60.71022660000001</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-60.71932660000001</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-60.71932660000001</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-60.74662660000001</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-60.62502660000001</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-60.6309266</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-60.5613266</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-60.5608266</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-60.5592266</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-61.49282659999999</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-62.54272659999999</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-59.35600948</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-59.50170948</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-58.16020948000001</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-57.20357061000001</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-57.20357061000001</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-57.30809568000001</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-55.65409568000001</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-57.59839568000001</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-57.52849568000001</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-57.45549568000001</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-57.80759568000001</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-57.98509568000001</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-57.98509568000001</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-57.98509568000001</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-64.23267093</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-65.06147093</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-63.35219568</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-63.48409568</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-63.21289568</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-63.22279568</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-63.26859568</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-63.1336335</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-63.10627123</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-63.10627123</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-63.11327123</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-63.11285432</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-63.29525432000001</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-63.27165432</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-63.38885432</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-63.22435432</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-67.85015432</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-67.93455432</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-67.93455432</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-67.29955432</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-67.29955432</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-67.29955432</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-66.55135432</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-67.01195432</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-68.19015432</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-67.92185432000001</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-67.92025432000001</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-67.90275432000001</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-67.90275432000001</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-68.73275188000001</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-68.73275188000001</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-67.72199971000001</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-67.15119971</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-66.41909971</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-63.80209970999999</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-66.62199971</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-61.63461805999999</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-61.63611805999999</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-62.61031806</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-62.54911806</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-62.54911806</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-62.54911806</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-62.60511806</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-62.60511806</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-62.60511806</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-62.62181806</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-62.62181806</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-62.60251805999999</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-62.87141806</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-62.03241806</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-62.03241806</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-60.53991806</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-61.19191806</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-61.17531806</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-61.17531806</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-61.17531806</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-61.16651806</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-61.16651806</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-61.16651806</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-64.10099619</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-63.11459619</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-63.11459619</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-63.12339619</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-62.92719619</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-62.92719619</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-63.51669619</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-63.16869619000001</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-63.16869619000001</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-63.17769619000001</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-63.13419619</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-63.13419619</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-63.13419619</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-63.13419619</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-61.72539619</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-61.56729619000001</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-62.26659623</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-58.17959623</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-58.31259623</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-58.30889623</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-58.30889623</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-58.30889623</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-57.86269623</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-58.01169623000001</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-58.01169623000001</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-58.01169623000001</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-58.01169623000001</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-58.01169623000001</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-57.81459671</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-59.57242206</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-62.73612206</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-62.95562206</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-62.96202206</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-62.35832205999999</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-61.06969917999999</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-61.07614306999999</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-61.08064306999999</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-61.08064306999999</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-61.08064306999999</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-57.23804523</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-57.70475731999999</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-57.90715731999999</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-57.90715731999999</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-57.88615731999999</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-57.93705731999999</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-57.93705731999999</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-57.93193251999999</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-58.22215730999999</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-61.86125731</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-61.73135731</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-58.12485731</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-58.21715731</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-58.21715731</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-58.58155731000001</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-58.58155731000001</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-58.09715731000001</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-59.09715731000001</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-61.63965731</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-61.63965731</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-61.63965731</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-61.63965731</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-62.65165731</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-62.64385731</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-61.90995729</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-61.90995729</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-57.92190407</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-53.66700407</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-53.66700407</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-53.66700407</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-53.66700407</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-54.45460407</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-47.58451174000001</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-48.03831174000001</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-47.60001174000001</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-42.70216921000002</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-37.93675773000002</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-37.93675773000002</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-39.10450298000002</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-36.26270298000002</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-31.65950298000002</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-34.89200298000002</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-43.64280298000002</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-47.12972232000002</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-55.74332233000002</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-55.59122233000002</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-55.76522233000002</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-53.93516367000002</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-54.90345761000003</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-54.90345761000003</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-54.03775761000003</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-52.90645761000003</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-50.25757343000002</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-54.71967343000002</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-54.61657343000002</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-54.75577343000003</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-53.31677339000002</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-53.31677339000002</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-52.48207339000002</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-53.28557339000002</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-52.25757339000003</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-54.92767339000002</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-55.32615749000002</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-55.32615749000002</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-50.66015749000002</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-39.49241767999997</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-40.30081767999997</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-41.40521767999996</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-40.56091767999997</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-40.19571767999997</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-33.97509292999997</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-34.13089292999997</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-33.80109292999997</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-35.26039292999997</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-35.17379292999997</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-32.48025897999997</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-31.97985897999997</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-33.43815897999997</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-33.12440593999997</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-33.12440593999997</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-33.12440593999997</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-32.10720593999996</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-32.10720593999996</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>-28.75625897999996</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-29.83245897999996</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-29.21945897999996</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-29.21945897999996</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-25.65405897999996</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-26.33135897999996</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-25.92855897999996</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-23.47005897999996</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-23.47005897999996</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-20.46955897999996</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-20.46955897999996</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>-19.73485897999996</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>-21.97124924999996</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-19.29473956999997</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-22.51873956999997</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-29.63690118999997</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-22.35390118999997</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-20.56410118999997</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-16.96289645999997</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-19.06849645999997</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-19.73119645999997</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-19.83119645999997</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-19.83119645999997</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-19.67779645999997</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>-19.67779645999997</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-18.97025004999997</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-15.56003534999997</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-20.73923534999997</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>-20.73923534999997</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>-21.50433534999997</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>-21.73643534999997</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>-21.88445995999997</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>-20.74175995999996</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>-21.32395995999996</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>-21.32395995999996</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>-20.18175995999997</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19690,7 +19690,7 @@
         <v>-20.20155995999997</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>-20.46765995999997</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>-19.90245995999997</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>-18.80543576999997</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>-18.98913576999997</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>-24.52440377999997</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>-21.47060377999997</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>-21.47060377999997</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>-21.53380377999997</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>-28.20560377999997</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>-28.08400377999997</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>-28.52150377999997</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>-28.72560377999997</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>-28.90610377999997</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>-28.90610377999997</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>-28.90610377999997</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-28.62777543999997</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-29.43697543999997</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>-29.43697543999997</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-29.43697543999997</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-30.91117543999997</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-30.91117543999997</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-30.91117543999997</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-32.58937543999996</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-31.74722301999996</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-37.72682301999996</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>-37.72682301999996</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>-29.41602301999996</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>-24.98012301999996</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-28.55992301999996</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-26.97992301999996</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-26.97992301999996</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-33.78002301999996</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>-28.03458114999996</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-28.66940813999996</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>-26.74098255999996</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-31.17933524999997</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-33.73959754999996</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-47.71129485999997</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-623.75497688</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21571,7 +21571,7 @@
         <v>-571.2174262999998</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-570.1777321599999</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>-570.0365684599999</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -22099,7 +22099,7 @@
         <v>-579.3369943399998</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22198,7 +22198,7 @@
         <v>-584.2754204399998</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22231,7 +22231,7 @@
         <v>-588.8897626699999</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22264,7 +22264,7 @@
         <v>-595.9558626699999</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22297,7 +22297,7 @@
         <v>-600.7204626699998</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22330,7 +22330,7 @@
         <v>-603.3751626699999</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -22363,7 +22363,7 @@
         <v>-603.3751626699999</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22396,7 +22396,7 @@
         <v>-596.3666626899999</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -22462,7 +22462,7 @@
         <v>-584.0206714399999</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22495,7 +22495,7 @@
         <v>-575.7314886899999</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22660,7 +22660,7 @@
         <v>-605.17480611</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -22693,7 +22693,7 @@
         <v>-599.18790611</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -23815,7 +23815,7 @@
         <v>-595.0368493400001</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -23848,7 +23848,7 @@
         <v>-595.5954493400001</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -23881,7 +23881,7 @@
         <v>-597.2943493400001</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -23914,7 +23914,7 @@
         <v>-599.92984934</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -23947,7 +23947,7 @@
         <v>-594.73884934</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -23980,7 +23980,7 @@
         <v>-594.73884934</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24013,7 +24013,7 @@
         <v>-594.73884934</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24046,7 +24046,7 @@
         <v>-596.02977312</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24079,7 +24079,7 @@
         <v>-596.02977312</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -26092,212 +26092,186 @@
         <v>-663.9688803699997</v>
       </c>
       <c r="H779" t="n">
-        <v>1</v>
-      </c>
-      <c r="I779" t="n">
-        <v>9122000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr">
+      <c r="K779" t="inlineStr"/>
+      <c r="L779" t="n">
+        <v>1</v>
+      </c>
+      <c r="M779" t="inlineStr"/>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="n">
+        <v>778</v>
+      </c>
+      <c r="B780" t="n">
+        <v>9118000</v>
+      </c>
+      <c r="C780" t="n">
+        <v>9124000</v>
+      </c>
+      <c r="D780" t="n">
+        <v>9124000</v>
+      </c>
+      <c r="E780" t="n">
+        <v>9117000</v>
+      </c>
+      <c r="F780" t="n">
+        <v>3.4275</v>
+      </c>
+      <c r="G780" t="n">
+        <v>-660.5413803699997</v>
+      </c>
+      <c r="H780" t="n">
+        <v>0</v>
+      </c>
+      <c r="I780" t="inlineStr"/>
+      <c r="J780" t="inlineStr"/>
+      <c r="K780" t="inlineStr"/>
+      <c r="L780" t="n">
+        <v>1</v>
+      </c>
+      <c r="M780" t="inlineStr"/>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="n">
+        <v>779</v>
+      </c>
+      <c r="B781" t="n">
+        <v>9117000</v>
+      </c>
+      <c r="C781" t="n">
+        <v>9125000</v>
+      </c>
+      <c r="D781" t="n">
+        <v>9125000</v>
+      </c>
+      <c r="E781" t="n">
+        <v>9117000</v>
+      </c>
+      <c r="F781" t="n">
+        <v>1.2377</v>
+      </c>
+      <c r="G781" t="n">
+        <v>-659.3036803699997</v>
+      </c>
+      <c r="H781" t="n">
+        <v>0</v>
+      </c>
+      <c r="I781" t="inlineStr"/>
+      <c r="J781" t="inlineStr"/>
+      <c r="K781" t="inlineStr"/>
+      <c r="L781" t="n">
+        <v>1</v>
+      </c>
+      <c r="M781" t="inlineStr"/>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="n">
+        <v>780</v>
+      </c>
+      <c r="B782" t="n">
+        <v>9125000</v>
+      </c>
+      <c r="C782" t="n">
+        <v>9127000</v>
+      </c>
+      <c r="D782" t="n">
+        <v>9127000</v>
+      </c>
+      <c r="E782" t="n">
+        <v>9117000</v>
+      </c>
+      <c r="F782" t="n">
+        <v>1.38669031</v>
+      </c>
+      <c r="G782" t="n">
+        <v>-657.9169900599998</v>
+      </c>
+      <c r="H782" t="n">
+        <v>0</v>
+      </c>
+      <c r="I782" t="inlineStr"/>
+      <c r="J782" t="inlineStr"/>
+      <c r="K782" t="inlineStr"/>
+      <c r="L782" t="n">
+        <v>1</v>
+      </c>
+      <c r="M782" t="inlineStr"/>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="n">
+        <v>781</v>
+      </c>
+      <c r="B783" t="n">
+        <v>9127000</v>
+      </c>
+      <c r="C783" t="n">
+        <v>9127000</v>
+      </c>
+      <c r="D783" t="n">
+        <v>9127000</v>
+      </c>
+      <c r="E783" t="n">
+        <v>9127000</v>
+      </c>
+      <c r="F783" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="G783" t="n">
+        <v>-657.9169900599998</v>
+      </c>
+      <c r="H783" t="n">
+        <v>1</v>
+      </c>
+      <c r="I783" t="n">
+        <v>9127000</v>
+      </c>
+      <c r="J783" t="n">
+        <v>9127000</v>
+      </c>
+      <c r="K783" t="inlineStr"/>
+      <c r="L783" t="n">
+        <v>1</v>
+      </c>
+      <c r="M783" t="inlineStr"/>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="n">
+        <v>782</v>
+      </c>
+      <c r="B784" t="n">
+        <v>9118000</v>
+      </c>
+      <c r="C784" t="n">
+        <v>9120000</v>
+      </c>
+      <c r="D784" t="n">
+        <v>9127000</v>
+      </c>
+      <c r="E784" t="n">
+        <v>9117000</v>
+      </c>
+      <c r="F784" t="n">
+        <v>8.2974</v>
+      </c>
+      <c r="G784" t="n">
+        <v>-666.2143900599998</v>
+      </c>
+      <c r="H784" t="n">
+        <v>0</v>
+      </c>
+      <c r="I784" t="inlineStr"/>
+      <c r="J784" t="n">
+        <v>9127000</v>
+      </c>
+      <c r="K784" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L779" t="n">
-        <v>1</v>
-      </c>
-      <c r="M779" t="inlineStr"/>
-    </row>
-    <row r="780">
-      <c r="A780" s="1" t="n">
-        <v>778</v>
-      </c>
-      <c r="B780" t="n">
-        <v>9118000</v>
-      </c>
-      <c r="C780" t="n">
-        <v>9124000</v>
-      </c>
-      <c r="D780" t="n">
-        <v>9124000</v>
-      </c>
-      <c r="E780" t="n">
-        <v>9117000</v>
-      </c>
-      <c r="F780" t="n">
-        <v>3.4275</v>
-      </c>
-      <c r="G780" t="n">
-        <v>-660.5413803699997</v>
-      </c>
-      <c r="H780" t="n">
-        <v>1</v>
-      </c>
-      <c r="I780" t="n">
-        <v>9118000</v>
-      </c>
-      <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L780" t="n">
-        <v>1</v>
-      </c>
-      <c r="M780" t="inlineStr"/>
-    </row>
-    <row r="781">
-      <c r="A781" s="1" t="n">
-        <v>779</v>
-      </c>
-      <c r="B781" t="n">
-        <v>9117000</v>
-      </c>
-      <c r="C781" t="n">
-        <v>9125000</v>
-      </c>
-      <c r="D781" t="n">
-        <v>9125000</v>
-      </c>
-      <c r="E781" t="n">
-        <v>9117000</v>
-      </c>
-      <c r="F781" t="n">
-        <v>1.2377</v>
-      </c>
-      <c r="G781" t="n">
-        <v>-659.3036803699997</v>
-      </c>
-      <c r="H781" t="n">
-        <v>1</v>
-      </c>
-      <c r="I781" t="n">
-        <v>9124000</v>
-      </c>
-      <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L781" t="n">
-        <v>1</v>
-      </c>
-      <c r="M781" t="inlineStr"/>
-    </row>
-    <row r="782">
-      <c r="A782" s="1" t="n">
-        <v>780</v>
-      </c>
-      <c r="B782" t="n">
-        <v>9125000</v>
-      </c>
-      <c r="C782" t="n">
-        <v>9127000</v>
-      </c>
-      <c r="D782" t="n">
-        <v>9127000</v>
-      </c>
-      <c r="E782" t="n">
-        <v>9117000</v>
-      </c>
-      <c r="F782" t="n">
-        <v>1.38669031</v>
-      </c>
-      <c r="G782" t="n">
-        <v>-657.9169900599998</v>
-      </c>
-      <c r="H782" t="n">
-        <v>1</v>
-      </c>
-      <c r="I782" t="n">
-        <v>9125000</v>
-      </c>
-      <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L782" t="n">
-        <v>1</v>
-      </c>
-      <c r="M782" t="inlineStr"/>
-    </row>
-    <row r="783">
-      <c r="A783" s="1" t="n">
-        <v>781</v>
-      </c>
-      <c r="B783" t="n">
-        <v>9127000</v>
-      </c>
-      <c r="C783" t="n">
-        <v>9127000</v>
-      </c>
-      <c r="D783" t="n">
-        <v>9127000</v>
-      </c>
-      <c r="E783" t="n">
-        <v>9127000</v>
-      </c>
-      <c r="F783" t="n">
-        <v>0.525</v>
-      </c>
-      <c r="G783" t="n">
-        <v>-657.9169900599998</v>
-      </c>
-      <c r="H783" t="n">
-        <v>1</v>
-      </c>
-      <c r="I783" t="n">
-        <v>9127000</v>
-      </c>
-      <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L783" t="n">
-        <v>1</v>
-      </c>
-      <c r="M783" t="inlineStr"/>
-    </row>
-    <row r="784">
-      <c r="A784" s="1" t="n">
-        <v>782</v>
-      </c>
-      <c r="B784" t="n">
-        <v>9118000</v>
-      </c>
-      <c r="C784" t="n">
-        <v>9120000</v>
-      </c>
-      <c r="D784" t="n">
-        <v>9127000</v>
-      </c>
-      <c r="E784" t="n">
-        <v>9117000</v>
-      </c>
-      <c r="F784" t="n">
-        <v>8.2974</v>
-      </c>
-      <c r="G784" t="n">
-        <v>-666.2143900599998</v>
-      </c>
-      <c r="H784" t="n">
-        <v>1</v>
-      </c>
-      <c r="I784" t="n">
-        <v>9127000</v>
-      </c>
-      <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26326,10 +26300,14 @@
         <v>-665.0588900599998</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
-      </c>
-      <c r="I785" t="inlineStr"/>
-      <c r="J785" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I785" t="n">
+        <v>9120000</v>
+      </c>
+      <c r="J785" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26363,10 +26341,14 @@
         <v>-665.0588900599998</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
-      </c>
-      <c r="I786" t="inlineStr"/>
-      <c r="J786" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I786" t="n">
+        <v>9126000</v>
+      </c>
+      <c r="J786" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26403,7 +26385,9 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="inlineStr"/>
+      <c r="J787" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K787" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26440,7 +26424,9 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="inlineStr"/>
+      <c r="J788" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26474,10 +26460,14 @@
         <v>-665.0588900599998</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
-      </c>
-      <c r="I789" t="inlineStr"/>
-      <c r="J789" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I789" t="n">
+        <v>9126000</v>
+      </c>
+      <c r="J789" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26511,10 +26501,14 @@
         <v>-667.7208288099998</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
-      </c>
-      <c r="I790" t="inlineStr"/>
-      <c r="J790" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I790" t="n">
+        <v>9126000</v>
+      </c>
+      <c r="J790" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K790" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26548,10 +26542,14 @@
         <v>-672.3514597799998</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
-      </c>
-      <c r="I791" t="inlineStr"/>
-      <c r="J791" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I791" t="n">
+        <v>9123000</v>
+      </c>
+      <c r="J791" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K791" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26585,10 +26583,14 @@
         <v>-673.7814597799998</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
-      </c>
-      <c r="I792" t="inlineStr"/>
-      <c r="J792" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I792" t="n">
+        <v>9116000</v>
+      </c>
+      <c r="J792" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K792" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26627,7 +26629,9 @@
       <c r="I793" t="n">
         <v>9113000</v>
       </c>
-      <c r="J793" t="inlineStr"/>
+      <c r="J793" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K793" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26666,7 +26670,9 @@
       <c r="I794" t="n">
         <v>9110000</v>
       </c>
-      <c r="J794" t="inlineStr"/>
+      <c r="J794" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K794" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26705,7 +26711,9 @@
       <c r="I795" t="n">
         <v>9109000</v>
       </c>
-      <c r="J795" t="inlineStr"/>
+      <c r="J795" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K795" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26744,7 +26752,9 @@
       <c r="I796" t="n">
         <v>9109000</v>
       </c>
-      <c r="J796" t="inlineStr"/>
+      <c r="J796" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K796" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26783,7 +26793,9 @@
       <c r="I797" t="n">
         <v>9105000</v>
       </c>
-      <c r="J797" t="inlineStr"/>
+      <c r="J797" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K797" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26822,7 +26834,9 @@
       <c r="I798" t="n">
         <v>9101000</v>
       </c>
-      <c r="J798" t="inlineStr"/>
+      <c r="J798" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K798" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26861,7 +26875,9 @@
       <c r="I799" t="n">
         <v>9109000</v>
       </c>
-      <c r="J799" t="inlineStr"/>
+      <c r="J799" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K799" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26900,7 +26916,9 @@
       <c r="I800" t="n">
         <v>9110000</v>
       </c>
-      <c r="J800" t="inlineStr"/>
+      <c r="J800" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K800" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26939,7 +26957,9 @@
       <c r="I801" t="n">
         <v>9109000</v>
       </c>
-      <c r="J801" t="inlineStr"/>
+      <c r="J801" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K801" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26978,7 +26998,9 @@
       <c r="I802" t="n">
         <v>9109000</v>
       </c>
-      <c r="J802" t="inlineStr"/>
+      <c r="J802" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27017,7 +27039,9 @@
       <c r="I803" t="n">
         <v>9117000</v>
       </c>
-      <c r="J803" t="inlineStr"/>
+      <c r="J803" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27051,12 +27075,12 @@
         <v>-679.2921374599998</v>
       </c>
       <c r="H804" t="n">
-        <v>1</v>
-      </c>
-      <c r="I804" t="n">
-        <v>9117000</v>
-      </c>
-      <c r="J804" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I804" t="inlineStr"/>
+      <c r="J804" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27090,12 +27114,12 @@
         <v>-679.9573374599998</v>
       </c>
       <c r="H805" t="n">
-        <v>1</v>
-      </c>
-      <c r="I805" t="n">
-        <v>9118000</v>
-      </c>
-      <c r="J805" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I805" t="inlineStr"/>
+      <c r="J805" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27129,12 +27153,12 @@
         <v>-680.5147238199999</v>
       </c>
       <c r="H806" t="n">
-        <v>1</v>
-      </c>
-      <c r="I806" t="n">
-        <v>9111000</v>
-      </c>
-      <c r="J806" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I806" t="inlineStr"/>
+      <c r="J806" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27168,12 +27192,12 @@
         <v>-678.9582238199998</v>
       </c>
       <c r="H807" t="n">
-        <v>1</v>
-      </c>
-      <c r="I807" t="n">
-        <v>9110000</v>
-      </c>
-      <c r="J807" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I807" t="inlineStr"/>
+      <c r="J807" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27207,12 +27231,12 @@
         <v>-678.5176238199998</v>
       </c>
       <c r="H808" t="n">
-        <v>1</v>
-      </c>
-      <c r="I808" t="n">
-        <v>9114000</v>
-      </c>
-      <c r="J808" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I808" t="inlineStr"/>
+      <c r="J808" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27246,12 +27270,12 @@
         <v>-680.2653375699998</v>
       </c>
       <c r="H809" t="n">
-        <v>1</v>
-      </c>
-      <c r="I809" t="n">
-        <v>9120000</v>
-      </c>
-      <c r="J809" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I809" t="inlineStr"/>
+      <c r="J809" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27290,7 +27314,9 @@
       <c r="I810" t="n">
         <v>9118000</v>
       </c>
-      <c r="J810" t="inlineStr"/>
+      <c r="J810" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27324,12 +27350,12 @@
         <v>-679.6292517399999</v>
       </c>
       <c r="H811" t="n">
-        <v>1</v>
-      </c>
-      <c r="I811" t="n">
-        <v>9114000</v>
-      </c>
-      <c r="J811" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I811" t="inlineStr"/>
+      <c r="J811" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27363,12 +27389,12 @@
         <v>-679.0252570299998</v>
       </c>
       <c r="H812" t="n">
-        <v>1</v>
-      </c>
-      <c r="I812" t="n">
-        <v>9122000</v>
-      </c>
-      <c r="J812" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I812" t="inlineStr"/>
+      <c r="J812" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27402,12 +27428,12 @@
         <v>-677.2982570299998</v>
       </c>
       <c r="H813" t="n">
-        <v>1</v>
-      </c>
-      <c r="I813" t="n">
-        <v>9124000</v>
-      </c>
-      <c r="J813" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I813" t="inlineStr"/>
+      <c r="J813" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27441,12 +27467,12 @@
         <v>-675.0163570299999</v>
       </c>
       <c r="H814" t="n">
-        <v>1</v>
-      </c>
-      <c r="I814" t="n">
-        <v>9126000</v>
-      </c>
-      <c r="J814" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I814" t="inlineStr"/>
+      <c r="J814" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27480,12 +27506,12 @@
         <v>-671.5676570299999</v>
       </c>
       <c r="H815" t="n">
-        <v>1</v>
-      </c>
-      <c r="I815" t="n">
-        <v>9128000</v>
-      </c>
-      <c r="J815" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I815" t="inlineStr"/>
+      <c r="J815" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27522,7 +27548,9 @@
         <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
-      <c r="J816" t="inlineStr"/>
+      <c r="J816" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27559,7 +27587,9 @@
         <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="inlineStr"/>
+      <c r="J817" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27596,7 +27626,9 @@
         <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="inlineStr"/>
+      <c r="J818" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27633,7 +27665,9 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="inlineStr"/>
+      <c r="J819" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27670,7 +27704,9 @@
         <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="inlineStr"/>
+      <c r="J820" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27707,7 +27743,9 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="inlineStr"/>
+      <c r="J821" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27744,7 +27782,9 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="inlineStr"/>
+      <c r="J822" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27781,7 +27821,9 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="inlineStr"/>
+      <c r="J823" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27818,7 +27860,9 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="inlineStr"/>
+      <c r="J824" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27855,7 +27899,9 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="inlineStr"/>
+      <c r="J825" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27892,7 +27938,9 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="inlineStr"/>
+      <c r="J826" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27929,7 +27977,9 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="inlineStr"/>
+      <c r="J827" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27966,7 +28016,9 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="inlineStr"/>
+      <c r="J828" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28003,7 +28055,9 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="inlineStr"/>
+      <c r="J829" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28040,7 +28094,9 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="inlineStr"/>
+      <c r="J830" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28077,7 +28133,9 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="inlineStr"/>
+      <c r="J831" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28114,7 +28172,9 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="inlineStr"/>
+      <c r="J832" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28151,7 +28211,9 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="inlineStr"/>
+      <c r="J833" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28188,7 +28250,9 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="inlineStr"/>
+      <c r="J834" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28225,7 +28289,9 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="inlineStr"/>
+      <c r="J835" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28262,7 +28328,9 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="inlineStr"/>
+      <c r="J836" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28299,7 +28367,9 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="inlineStr"/>
+      <c r="J837" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28336,7 +28406,9 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="inlineStr"/>
+      <c r="J838" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28370,17 +28442,19 @@
         <v>-665.9223193499996</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="inlineStr"/>
+      <c r="J839" t="n">
+        <v>9127000</v>
+      </c>
       <c r="K839" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L839" t="n">
-        <v>1</v>
+        <v>0.9968626054563384</v>
       </c>
       <c r="M839" t="inlineStr"/>
     </row>
@@ -28407,15 +28481,11 @@
         <v>-664.4178193499996</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K840" t="inlineStr"/>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28444,15 +28514,11 @@
         <v>-665.1178193499996</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K841" t="inlineStr"/>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28481,15 +28547,11 @@
         <v>-664.8514923999996</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K842" t="inlineStr"/>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28518,15 +28580,11 @@
         <v>-665.8932923999996</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K843" t="inlineStr"/>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28555,15 +28613,11 @@
         <v>-667.2886923999996</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K844" t="inlineStr"/>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28592,15 +28646,11 @@
         <v>-668.1731923999996</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K845" t="inlineStr"/>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28629,17 +28679,11 @@
         <v>-665.9167923999996</v>
       </c>
       <c r="H846" t="n">
-        <v>1</v>
-      </c>
-      <c r="I846" t="n">
-        <v>9137000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K846" t="inlineStr"/>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28668,17 +28712,11 @@
         <v>-667.6181923999997</v>
       </c>
       <c r="H847" t="n">
-        <v>1</v>
-      </c>
-      <c r="I847" t="n">
-        <v>9138000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K847" t="inlineStr"/>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28707,17 +28745,11 @@
         <v>-666.5813923999997</v>
       </c>
       <c r="H848" t="n">
-        <v>1</v>
-      </c>
-      <c r="I848" t="n">
-        <v>9131000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K848" t="inlineStr"/>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28746,17 +28778,11 @@
         <v>-666.6594923999996</v>
       </c>
       <c r="H849" t="n">
-        <v>1</v>
-      </c>
-      <c r="I849" t="n">
-        <v>9142000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K849" t="inlineStr"/>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28785,17 +28811,11 @@
         <v>-666.6594923999996</v>
       </c>
       <c r="H850" t="n">
-        <v>1</v>
-      </c>
-      <c r="I850" t="n">
-        <v>9132000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K850" t="inlineStr"/>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28824,17 +28844,11 @@
         <v>-668.9289923999996</v>
       </c>
       <c r="H851" t="n">
-        <v>1</v>
-      </c>
-      <c r="I851" t="n">
-        <v>9132000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K851" t="inlineStr"/>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -28863,17 +28877,11 @@
         <v>-675.5384923999997</v>
       </c>
       <c r="H852" t="n">
-        <v>1</v>
-      </c>
-      <c r="I852" t="n">
-        <v>9130000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K852" t="inlineStr"/>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28902,17 +28910,11 @@
         <v>-676.9076202499997</v>
       </c>
       <c r="H853" t="n">
-        <v>1</v>
-      </c>
-      <c r="I853" t="n">
-        <v>9124000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K853" t="inlineStr"/>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -28941,17 +28943,11 @@
         <v>-676.9076202499997</v>
       </c>
       <c r="H854" t="n">
-        <v>1</v>
-      </c>
-      <c r="I854" t="n">
-        <v>9123000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K854" t="inlineStr"/>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -28980,17 +28976,11 @@
         <v>-679.7346202499997</v>
       </c>
       <c r="H855" t="n">
-        <v>1</v>
-      </c>
-      <c r="I855" t="n">
-        <v>9123000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K855" t="inlineStr"/>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -29019,17 +29009,11 @@
         <v>-680.0546202499997</v>
       </c>
       <c r="H856" t="n">
-        <v>1</v>
-      </c>
-      <c r="I856" t="n">
-        <v>9119000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K856" t="inlineStr"/>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -29058,17 +29042,11 @@
         <v>-681.3626827499997</v>
       </c>
       <c r="H857" t="n">
-        <v>1</v>
-      </c>
-      <c r="I857" t="n">
-        <v>9117000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K857" t="inlineStr"/>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -29097,17 +29075,11 @@
         <v>-681.3626827499997</v>
       </c>
       <c r="H858" t="n">
-        <v>1</v>
-      </c>
-      <c r="I858" t="n">
-        <v>9115000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K858" t="inlineStr"/>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -29136,17 +29108,11 @@
         <v>-681.3626827499997</v>
       </c>
       <c r="H859" t="n">
-        <v>1</v>
-      </c>
-      <c r="I859" t="n">
-        <v>9115000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K859" t="inlineStr"/>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -29175,17 +29141,11 @@
         <v>-682.4077827499998</v>
       </c>
       <c r="H860" t="n">
-        <v>1</v>
-      </c>
-      <c r="I860" t="n">
-        <v>9115000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K860" t="inlineStr"/>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -29214,17 +29174,11 @@
         <v>-678.3887827499998</v>
       </c>
       <c r="H861" t="n">
-        <v>1</v>
-      </c>
-      <c r="I861" t="n">
-        <v>9114000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K861" t="inlineStr"/>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -29253,17 +29207,11 @@
         <v>-679.9340827499998</v>
       </c>
       <c r="H862" t="n">
-        <v>1</v>
-      </c>
-      <c r="I862" t="n">
-        <v>9122000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K862" t="inlineStr"/>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -29292,17 +29240,11 @@
         <v>-680.5157827499997</v>
       </c>
       <c r="H863" t="n">
-        <v>1</v>
-      </c>
-      <c r="I863" t="n">
-        <v>9120000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K863" t="inlineStr"/>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -29331,17 +29273,11 @@
         <v>-697.8160827499997</v>
       </c>
       <c r="H864" t="n">
-        <v>1</v>
-      </c>
-      <c r="I864" t="n">
-        <v>9119000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K864" t="inlineStr"/>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -29370,17 +29306,11 @@
         <v>-702.7229110699998</v>
       </c>
       <c r="H865" t="n">
-        <v>1</v>
-      </c>
-      <c r="I865" t="n">
-        <v>9105000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K865" t="inlineStr"/>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -29417,7 +29347,7 @@
       <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L866" t="n">
@@ -30033,11 +29963,9 @@
         <v>-692.6673178699997</v>
       </c>
       <c r="H882" t="n">
-        <v>1</v>
-      </c>
-      <c r="I882" t="n">
-        <v>9120000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr">
         <is>
@@ -30072,11 +30000,9 @@
         <v>-691.1356178699997</v>
       </c>
       <c r="H883" t="n">
-        <v>1</v>
-      </c>
-      <c r="I883" t="n">
-        <v>9120000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr">
         <is>
@@ -30111,11 +30037,9 @@
         <v>-691.1356178699997</v>
       </c>
       <c r="H884" t="n">
-        <v>1</v>
-      </c>
-      <c r="I884" t="n">
-        <v>9125000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr">
         <is>
@@ -30150,11 +30074,9 @@
         <v>-690.8792990699997</v>
       </c>
       <c r="H885" t="n">
-        <v>1</v>
-      </c>
-      <c r="I885" t="n">
-        <v>9125000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
@@ -30189,11 +30111,9 @@
         <v>-692.4833990699997</v>
       </c>
       <c r="H886" t="n">
-        <v>1</v>
-      </c>
-      <c r="I886" t="n">
-        <v>9126000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
@@ -31449,11 +31369,9 @@
         <v>-674.6629147399995</v>
       </c>
       <c r="H920" t="n">
-        <v>1</v>
-      </c>
-      <c r="I920" t="n">
-        <v>9134000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr">
         <is>
@@ -33079,18 +32997,16 @@
         <v>-635.3835961899995</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
       <c r="K964" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L964" t="n">
-        <v>1</v>
-      </c>
+      <c r="L964" t="inlineStr"/>
       <c r="M964" t="inlineStr"/>
     </row>
     <row r="965">
@@ -33116,15 +33032,11 @@
         <v>-637.0513961899995</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K965" t="inlineStr"/>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -33153,15 +33065,11 @@
         <v>-636.4628961899996</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K966" t="inlineStr"/>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -33190,15 +33098,11 @@
         <v>-635.0457961899996</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K967" t="inlineStr"/>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -33227,15 +33131,11 @@
         <v>-638.7453961899996</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K968" t="inlineStr"/>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -33264,15 +33164,11 @@
         <v>-638.1541961899997</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K969" t="inlineStr"/>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -33301,15 +33197,11 @@
         <v>-636.0927961899996</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K970" t="inlineStr"/>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -33338,15 +33230,11 @@
         <v>-638.0783961899996</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K971" t="inlineStr"/>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -33375,15 +33263,11 @@
         <v>-637.3554961899996</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K972" t="inlineStr"/>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -33412,15 +33296,11 @@
         <v>-638.6188961899996</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K973" t="inlineStr"/>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -33449,15 +33329,11 @@
         <v>-635.5239961899996</v>
       </c>
       <c r="H974" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K974" t="inlineStr"/>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -33486,15 +33362,11 @@
         <v>-634.4355961899996</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K975" t="inlineStr"/>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -33527,11 +33399,7 @@
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K976" t="inlineStr"/>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -33564,11 +33432,7 @@
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K977" t="inlineStr"/>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -33601,11 +33465,7 @@
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K978" t="inlineStr"/>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -33638,11 +33498,7 @@
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K979" t="inlineStr"/>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -33675,11 +33531,7 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K980" t="inlineStr"/>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -33712,11 +33564,7 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K981" t="inlineStr"/>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -33745,15 +33593,11 @@
         <v>-629.8305042799997</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K982" t="inlineStr"/>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -33782,15 +33626,11 @@
         <v>-627.1010042799996</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K983" t="inlineStr"/>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -33819,15 +33659,11 @@
         <v>-625.3130809999997</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K984" t="inlineStr"/>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -33856,15 +33692,11 @@
         <v>-625.3130809999997</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K985" t="inlineStr"/>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -33893,15 +33725,11 @@
         <v>-623.1395904199996</v>
       </c>
       <c r="H986" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K986" t="inlineStr"/>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -33930,15 +33758,11 @@
         <v>-623.1395904199996</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K987" t="inlineStr"/>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -33971,11 +33795,7 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K988" t="inlineStr"/>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -34008,11 +33828,7 @@
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K989" t="inlineStr"/>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -34045,11 +33861,7 @@
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K990" t="inlineStr"/>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -34082,11 +33894,7 @@
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K991" t="inlineStr"/>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -34119,11 +33927,7 @@
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K992" t="inlineStr"/>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -34156,11 +33960,7 @@
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K993" t="inlineStr"/>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -34193,11 +33993,7 @@
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K994" t="inlineStr"/>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -34230,11 +34026,7 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K995" t="inlineStr"/>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -34267,11 +34059,7 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K996" t="inlineStr"/>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -34304,11 +34092,7 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K997" t="inlineStr"/>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -34341,11 +34125,7 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K998" t="inlineStr"/>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -34378,11 +34158,7 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K999" t="inlineStr"/>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -34415,11 +34191,7 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1000" t="inlineStr"/>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -34452,11 +34224,7 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1001" t="inlineStr"/>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -34489,11 +34257,7 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1002" t="inlineStr"/>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -34526,11 +34290,7 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1003" t="inlineStr"/>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -34563,11 +34323,7 @@
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1004" t="inlineStr"/>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -34600,11 +34356,7 @@
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1005" t="inlineStr"/>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -34637,11 +34389,7 @@
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1006" t="inlineStr"/>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -34674,11 +34422,7 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1007" t="inlineStr"/>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -34711,11 +34455,7 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1008" t="inlineStr"/>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -34748,11 +34488,7 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1009" t="inlineStr"/>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -34785,11 +34521,7 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1010" t="inlineStr"/>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -34822,11 +34554,7 @@
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1011" t="inlineStr"/>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -34859,11 +34587,7 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1012" t="inlineStr"/>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -34896,11 +34620,7 @@
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1013" t="inlineStr"/>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -34933,11 +34653,7 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1014" t="inlineStr"/>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -34970,11 +34686,7 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1015" t="inlineStr"/>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -35007,11 +34719,7 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1016" t="inlineStr"/>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -35044,11 +34752,7 @@
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1017" t="inlineStr"/>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -35081,11 +34785,7 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1018" t="inlineStr"/>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -35118,11 +34818,7 @@
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1019" t="inlineStr"/>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -35155,11 +34851,7 @@
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1020" t="inlineStr"/>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -35192,11 +34884,7 @@
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1021" t="inlineStr"/>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -35229,11 +34917,7 @@
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1022" t="inlineStr"/>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -35266,11 +34950,7 @@
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1023" t="inlineStr"/>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -35303,11 +34983,7 @@
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1024" t="inlineStr"/>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -35340,11 +35016,7 @@
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1025" t="inlineStr"/>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -35377,11 +35049,7 @@
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1026" t="inlineStr"/>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -35414,11 +35082,7 @@
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1027" t="inlineStr"/>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -35451,11 +35115,7 @@
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1028" t="inlineStr"/>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -35488,11 +35148,7 @@
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1029" t="inlineStr"/>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -35525,11 +35181,7 @@
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1030" t="inlineStr"/>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -35562,11 +35214,7 @@
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1031" t="inlineStr"/>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -35599,11 +35247,7 @@
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1032" t="inlineStr"/>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -35636,11 +35280,7 @@
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1033" t="inlineStr"/>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -35673,11 +35313,7 @@
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1034" t="inlineStr"/>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -35710,11 +35346,7 @@
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1035" t="inlineStr"/>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -35747,11 +35379,7 @@
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1036" t="inlineStr"/>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -35784,11 +35412,7 @@
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1037" t="inlineStr"/>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -35821,11 +35445,7 @@
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1038" t="inlineStr"/>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -35858,11 +35478,7 @@
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1039" t="inlineStr"/>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -35895,11 +35511,7 @@
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1040" t="inlineStr"/>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -35932,11 +35544,7 @@
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1041" t="inlineStr"/>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -35969,11 +35577,7 @@
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1042" t="inlineStr"/>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -36006,11 +35610,7 @@
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1043" t="inlineStr"/>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -36043,11 +35643,7 @@
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1044" t="inlineStr"/>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -36080,11 +35676,7 @@
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1045" t="inlineStr"/>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -36117,11 +35709,7 @@
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1046" t="inlineStr"/>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -36154,11 +35742,7 @@
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1047" t="inlineStr"/>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -36191,11 +35775,7 @@
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1048" t="inlineStr"/>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
@@ -36228,11 +35808,7 @@
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1049" t="inlineStr"/>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -36265,11 +35841,7 @@
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
-      <c r="K1050" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1050" t="inlineStr"/>
       <c r="L1050" t="n">
         <v>1</v>
       </c>
@@ -36302,11 +35874,7 @@
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
-      <c r="K1051" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1051" t="inlineStr"/>
       <c r="L1051" t="n">
         <v>1</v>
       </c>
@@ -36339,11 +35907,7 @@
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
-      <c r="K1052" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1052" t="inlineStr"/>
       <c r="L1052" t="n">
         <v>1</v>
       </c>
@@ -36376,11 +35940,7 @@
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1053" t="inlineStr"/>
       <c r="L1053" t="n">
         <v>1</v>
       </c>
@@ -36413,11 +35973,7 @@
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1054" t="inlineStr"/>
       <c r="L1054" t="n">
         <v>1</v>
       </c>
@@ -36450,11 +36006,7 @@
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
-      <c r="K1055" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1055" t="inlineStr"/>
       <c r="L1055" t="n">
         <v>1</v>
       </c>
@@ -36487,11 +36039,7 @@
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
-      <c r="K1056" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1056" t="inlineStr"/>
       <c r="L1056" t="n">
         <v>1</v>
       </c>
@@ -36524,11 +36072,7 @@
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
-      <c r="K1057" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1057" t="inlineStr"/>
       <c r="L1057" t="n">
         <v>1</v>
       </c>
@@ -36561,11 +36105,7 @@
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
-      <c r="K1058" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1058" t="inlineStr"/>
       <c r="L1058" t="n">
         <v>1</v>
       </c>
@@ -36598,11 +36138,7 @@
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
-      <c r="K1059" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1059" t="inlineStr"/>
       <c r="L1059" t="n">
         <v>1</v>
       </c>
@@ -36635,11 +36171,7 @@
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1060" t="inlineStr"/>
       <c r="L1060" t="n">
         <v>1</v>
       </c>
@@ -36672,11 +36204,7 @@
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1061" t="inlineStr"/>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -36709,11 +36237,7 @@
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1062" t="inlineStr"/>
       <c r="L1062" t="n">
         <v>1</v>
       </c>
@@ -36746,11 +36270,7 @@
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1063" t="inlineStr"/>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -36783,11 +36303,7 @@
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1064" t="inlineStr"/>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -36820,11 +36336,7 @@
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1065" t="inlineStr"/>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -36857,11 +36369,7 @@
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1066" t="inlineStr"/>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -36894,11 +36402,7 @@
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1067" t="inlineStr"/>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -36931,11 +36435,7 @@
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
-      <c r="K1068" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1068" t="inlineStr"/>
       <c r="L1068" t="n">
         <v>1</v>
       </c>
@@ -36968,11 +36468,7 @@
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
-      <c r="K1069" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1069" t="inlineStr"/>
       <c r="L1069" t="n">
         <v>1</v>
       </c>
@@ -37005,11 +36501,7 @@
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
-      <c r="K1070" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1070" t="inlineStr"/>
       <c r="L1070" t="n">
         <v>1</v>
       </c>
@@ -37042,11 +36534,7 @@
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
-      <c r="K1071" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1071" t="inlineStr"/>
       <c r="L1071" t="n">
         <v>1</v>
       </c>
@@ -37079,11 +36567,7 @@
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
-      <c r="K1072" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1072" t="inlineStr"/>
       <c r="L1072" t="n">
         <v>1</v>
       </c>
@@ -37116,11 +36600,7 @@
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1073" t="inlineStr"/>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
@@ -37153,11 +36633,7 @@
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
-      <c r="K1074" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1074" t="inlineStr"/>
       <c r="L1074" t="n">
         <v>1</v>
       </c>
@@ -37190,11 +36666,7 @@
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
-      <c r="K1075" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1075" t="inlineStr"/>
       <c r="L1075" t="n">
         <v>1</v>
       </c>
@@ -37227,11 +36699,7 @@
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1076" t="inlineStr"/>
       <c r="L1076" t="n">
         <v>1</v>
       </c>
@@ -37264,11 +36732,7 @@
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1077" t="inlineStr"/>
       <c r="L1077" t="n">
         <v>1</v>
       </c>
@@ -37301,11 +36765,7 @@
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
-      <c r="K1078" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1078" t="inlineStr"/>
       <c r="L1078" t="n">
         <v>1</v>
       </c>
@@ -37338,11 +36798,7 @@
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
-      <c r="K1079" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1079" t="inlineStr"/>
       <c r="L1079" t="n">
         <v>1</v>
       </c>
@@ -37375,11 +36831,7 @@
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
-      <c r="K1080" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1080" t="inlineStr"/>
       <c r="L1080" t="n">
         <v>1</v>
       </c>
@@ -37412,11 +36864,7 @@
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
-      <c r="K1081" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1081" t="inlineStr"/>
       <c r="L1081" t="n">
         <v>1</v>
       </c>
@@ -37449,11 +36897,7 @@
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
-      <c r="K1082" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1082" t="inlineStr"/>
       <c r="L1082" t="n">
         <v>1</v>
       </c>
@@ -37486,11 +36930,7 @@
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
-      <c r="K1083" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1083" t="inlineStr"/>
       <c r="L1083" t="n">
         <v>1</v>
       </c>
@@ -37523,11 +36963,7 @@
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1084" t="inlineStr"/>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -37560,11 +36996,7 @@
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1085" t="inlineStr"/>
       <c r="L1085" t="n">
         <v>1</v>
       </c>
@@ -37597,11 +37029,7 @@
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
-      <c r="K1086" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1086" t="inlineStr"/>
       <c r="L1086" t="n">
         <v>1</v>
       </c>
@@ -37630,15 +37058,11 @@
         <v>-629.2898516099997</v>
       </c>
       <c r="H1087" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
-      <c r="K1087" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1087" t="inlineStr"/>
       <c r="L1087" t="n">
         <v>1</v>
       </c>
@@ -37667,15 +37091,11 @@
         <v>-628.1942515899997</v>
       </c>
       <c r="H1088" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
-      <c r="K1088" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1088" t="inlineStr"/>
       <c r="L1088" t="n">
         <v>1</v>
       </c>
@@ -37704,15 +37124,11 @@
         <v>-628.3673515899997</v>
       </c>
       <c r="H1089" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
-      <c r="K1089" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1089" t="inlineStr"/>
       <c r="L1089" t="n">
         <v>1</v>
       </c>
@@ -37741,15 +37157,11 @@
         <v>-627.8792515899996</v>
       </c>
       <c r="H1090" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
-      <c r="K1090" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1090" t="inlineStr"/>
       <c r="L1090" t="n">
         <v>1</v>
       </c>
@@ -37778,15 +37190,11 @@
         <v>-628.0923515899997</v>
       </c>
       <c r="H1091" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
-      <c r="K1091" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1091" t="inlineStr"/>
       <c r="L1091" t="n">
         <v>1</v>
       </c>
@@ -37815,15 +37223,11 @@
         <v>-627.1496568999996</v>
       </c>
       <c r="H1092" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
-      <c r="K1092" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1092" t="inlineStr"/>
       <c r="L1092" t="n">
         <v>1</v>
       </c>
@@ -37852,15 +37256,11 @@
         <v>-627.5367568999997</v>
       </c>
       <c r="H1093" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
-      <c r="K1093" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1093" t="inlineStr"/>
       <c r="L1093" t="n">
         <v>1</v>
       </c>
@@ -37889,15 +37289,11 @@
         <v>-625.5389568999997</v>
       </c>
       <c r="H1094" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
-      <c r="K1094" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1094" t="inlineStr"/>
       <c r="L1094" t="n">
         <v>1</v>
       </c>
@@ -37926,15 +37322,11 @@
         <v>-614.5457906999997</v>
       </c>
       <c r="H1095" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
-      <c r="K1095" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1095" t="inlineStr"/>
       <c r="L1095" t="n">
         <v>1</v>
       </c>
@@ -37963,15 +37355,11 @@
         <v>-614.5457906999997</v>
       </c>
       <c r="H1096" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
-      <c r="K1096" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1096" t="inlineStr"/>
       <c r="L1096" t="n">
         <v>1</v>
       </c>
@@ -38000,15 +37388,11 @@
         <v>-614.5457906999997</v>
       </c>
       <c r="H1097" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
-      <c r="K1097" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1097" t="inlineStr"/>
       <c r="L1097" t="n">
         <v>1</v>
       </c>
@@ -38041,11 +37425,7 @@
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
-      <c r="K1098" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1098" t="inlineStr"/>
       <c r="L1098" t="n">
         <v>1</v>
       </c>
@@ -38078,11 +37458,7 @@
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
-      <c r="K1099" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1099" t="inlineStr"/>
       <c r="L1099" t="n">
         <v>1</v>
       </c>
@@ -38115,11 +37491,7 @@
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
-      <c r="K1100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1100" t="inlineStr"/>
       <c r="L1100" t="n">
         <v>1</v>
       </c>
@@ -38152,11 +37524,7 @@
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
-      <c r="K1101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1101" t="inlineStr"/>
       <c r="L1101" t="n">
         <v>1</v>
       </c>
@@ -38189,11 +37557,7 @@
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
-      <c r="K1102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1102" t="inlineStr"/>
       <c r="L1102" t="n">
         <v>1</v>
       </c>
@@ -38226,11 +37590,7 @@
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
-      <c r="K1103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1103" t="inlineStr"/>
       <c r="L1103" t="n">
         <v>1</v>
       </c>
@@ -38263,11 +37623,7 @@
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
-      <c r="K1104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1104" t="inlineStr"/>
       <c r="L1104" t="n">
         <v>1</v>
       </c>
@@ -38300,11 +37656,7 @@
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
-      <c r="K1105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1105" t="inlineStr"/>
       <c r="L1105" t="n">
         <v>1</v>
       </c>
@@ -38337,11 +37689,7 @@
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
-      <c r="K1106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1106" t="inlineStr"/>
       <c r="L1106" t="n">
         <v>1</v>
       </c>
@@ -38374,11 +37722,7 @@
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
-      <c r="K1107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1107" t="inlineStr"/>
       <c r="L1107" t="n">
         <v>1</v>
       </c>
@@ -38411,11 +37755,7 @@
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
-      <c r="K1108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1108" t="inlineStr"/>
       <c r="L1108" t="n">
         <v>1</v>
       </c>
@@ -38448,11 +37788,7 @@
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
-      <c r="K1109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1109" t="inlineStr"/>
       <c r="L1109" t="n">
         <v>1</v>
       </c>
@@ -38485,11 +37821,7 @@
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
-      <c r="K1110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1110" t="inlineStr"/>
       <c r="L1110" t="n">
         <v>1</v>
       </c>
@@ -38522,11 +37854,7 @@
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
-      <c r="K1111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1111" t="inlineStr"/>
       <c r="L1111" t="n">
         <v>1</v>
       </c>
@@ -38559,11 +37887,7 @@
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
-      <c r="K1112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1112" t="inlineStr"/>
       <c r="L1112" t="n">
         <v>1</v>
       </c>
@@ -38596,11 +37920,7 @@
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
-      <c r="K1113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1113" t="inlineStr"/>
       <c r="L1113" t="n">
         <v>1</v>
       </c>
@@ -38633,11 +37953,7 @@
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
-      <c r="K1114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1114" t="inlineStr"/>
       <c r="L1114" t="n">
         <v>1</v>
       </c>
@@ -38670,11 +37986,7 @@
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
-      <c r="K1115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1115" t="inlineStr"/>
       <c r="L1115" t="n">
         <v>1</v>
       </c>
@@ -38707,11 +38019,7 @@
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
-      <c r="K1116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1116" t="inlineStr"/>
       <c r="L1116" t="n">
         <v>1</v>
       </c>
@@ -38744,11 +38052,7 @@
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
-      <c r="K1117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1117" t="inlineStr"/>
       <c r="L1117" t="n">
         <v>1</v>
       </c>
@@ -38781,11 +38085,7 @@
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
-      <c r="K1118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1118" t="inlineStr"/>
       <c r="L1118" t="n">
         <v>1</v>
       </c>
@@ -38818,11 +38118,7 @@
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
-      <c r="K1119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1119" t="inlineStr"/>
       <c r="L1119" t="n">
         <v>1</v>
       </c>
@@ -38855,11 +38151,7 @@
       </c>
       <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="inlineStr"/>
-      <c r="K1120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1120" t="inlineStr"/>
       <c r="L1120" t="n">
         <v>1</v>
       </c>
@@ -38892,11 +38184,7 @@
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="inlineStr"/>
-      <c r="K1121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1121" t="inlineStr"/>
       <c r="L1121" t="n">
         <v>1</v>
       </c>
@@ -38929,11 +38217,7 @@
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
-      <c r="K1122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1122" t="inlineStr"/>
       <c r="L1122" t="n">
         <v>1</v>
       </c>
@@ -38966,11 +38250,7 @@
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
-      <c r="K1123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1123" t="inlineStr"/>
       <c r="L1123" t="n">
         <v>1</v>
       </c>
@@ -39003,11 +38283,7 @@
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
-      <c r="K1124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1124" t="inlineStr"/>
       <c r="L1124" t="n">
         <v>1</v>
       </c>
@@ -39040,11 +38316,7 @@
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
-      <c r="K1125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1125" t="inlineStr"/>
       <c r="L1125" t="n">
         <v>1</v>
       </c>
@@ -39077,11 +38349,7 @@
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="inlineStr"/>
-      <c r="K1126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1126" t="inlineStr"/>
       <c r="L1126" t="n">
         <v>1</v>
       </c>
@@ -39114,11 +38382,7 @@
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
-      <c r="K1127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1127" t="inlineStr"/>
       <c r="L1127" t="n">
         <v>1</v>
       </c>
@@ -39151,11 +38415,7 @@
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
-      <c r="K1128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1128" t="inlineStr"/>
       <c r="L1128" t="n">
         <v>1</v>
       </c>
@@ -39188,11 +38448,7 @@
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
-      <c r="K1129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1129" t="inlineStr"/>
       <c r="L1129" t="n">
         <v>1</v>
       </c>
@@ -39225,11 +38481,7 @@
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
-      <c r="K1130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1130" t="inlineStr"/>
       <c r="L1130" t="n">
         <v>1</v>
       </c>
@@ -39262,11 +38514,7 @@
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
-      <c r="K1131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1131" t="inlineStr"/>
       <c r="L1131" t="n">
         <v>1</v>
       </c>
@@ -39299,11 +38547,7 @@
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
-      <c r="K1132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1132" t="inlineStr"/>
       <c r="L1132" t="n">
         <v>1</v>
       </c>
@@ -39336,11 +38580,7 @@
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
-      <c r="K1133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1133" t="inlineStr"/>
       <c r="L1133" t="n">
         <v>1</v>
       </c>
@@ -39373,11 +38613,7 @@
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
-      <c r="K1134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1134" t="inlineStr"/>
       <c r="L1134" t="n">
         <v>1</v>
       </c>
@@ -39410,11 +38646,7 @@
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
-      <c r="K1135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1135" t="inlineStr"/>
       <c r="L1135" t="n">
         <v>1</v>
       </c>
@@ -39447,11 +38679,7 @@
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
-      <c r="K1136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1136" t="inlineStr"/>
       <c r="L1136" t="n">
         <v>1</v>
       </c>
@@ -39484,11 +38712,7 @@
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
-      <c r="K1137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1137" t="inlineStr"/>
       <c r="L1137" t="n">
         <v>1</v>
       </c>
@@ -39521,11 +38745,7 @@
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
-      <c r="K1138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1138" t="inlineStr"/>
       <c r="L1138" t="n">
         <v>1</v>
       </c>
@@ -39558,11 +38778,7 @@
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
-      <c r="K1139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1139" t="inlineStr"/>
       <c r="L1139" t="n">
         <v>1</v>
       </c>
@@ -39595,11 +38811,7 @@
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
-      <c r="K1140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1140" t="inlineStr"/>
       <c r="L1140" t="n">
         <v>1</v>
       </c>
@@ -39632,11 +38844,7 @@
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="inlineStr"/>
-      <c r="K1141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1141" t="inlineStr"/>
       <c r="L1141" t="n">
         <v>1</v>
       </c>
@@ -39669,11 +38877,7 @@
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="inlineStr"/>
-      <c r="K1142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1142" t="inlineStr"/>
       <c r="L1142" t="n">
         <v>1</v>
       </c>
@@ -39706,11 +38910,7 @@
       </c>
       <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="inlineStr"/>
-      <c r="K1143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1143" t="inlineStr"/>
       <c r="L1143" t="n">
         <v>1</v>
       </c>
@@ -39743,11 +38943,7 @@
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="inlineStr"/>
-      <c r="K1144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1144" t="inlineStr"/>
       <c r="L1144" t="n">
         <v>1</v>
       </c>
@@ -39780,11 +38976,7 @@
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
-      <c r="K1145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1145" t="inlineStr"/>
       <c r="L1145" t="n">
         <v>1</v>
       </c>
@@ -39817,11 +39009,7 @@
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
-      <c r="K1146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1146" t="inlineStr"/>
       <c r="L1146" t="n">
         <v>1</v>
       </c>
@@ -39854,11 +39042,7 @@
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
-      <c r="K1147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1147" t="inlineStr"/>
       <c r="L1147" t="n">
         <v>1</v>
       </c>
@@ -39891,11 +39075,7 @@
       </c>
       <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="inlineStr"/>
-      <c r="K1148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1148" t="inlineStr"/>
       <c r="L1148" t="n">
         <v>1</v>
       </c>
@@ -39928,11 +39108,7 @@
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="inlineStr"/>
-      <c r="K1149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1149" t="inlineStr"/>
       <c r="L1149" t="n">
         <v>1</v>
       </c>
@@ -39965,11 +39141,7 @@
       </c>
       <c r="I1150" t="inlineStr"/>
       <c r="J1150" t="inlineStr"/>
-      <c r="K1150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1150" t="inlineStr"/>
       <c r="L1150" t="n">
         <v>1</v>
       </c>
@@ -40002,11 +39174,7 @@
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="inlineStr"/>
-      <c r="K1151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1151" t="inlineStr"/>
       <c r="L1151" t="n">
         <v>1</v>
       </c>
@@ -40039,11 +39207,7 @@
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
-      <c r="K1152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1152" t="inlineStr"/>
       <c r="L1152" t="n">
         <v>1</v>
       </c>
@@ -40076,11 +39240,7 @@
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="inlineStr"/>
-      <c r="K1153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1153" t="inlineStr"/>
       <c r="L1153" t="n">
         <v>1</v>
       </c>
@@ -40113,11 +39273,7 @@
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="inlineStr"/>
-      <c r="K1154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1154" t="inlineStr"/>
       <c r="L1154" t="n">
         <v>1</v>
       </c>
@@ -40150,11 +39306,7 @@
       </c>
       <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="inlineStr"/>
-      <c r="K1155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1155" t="inlineStr"/>
       <c r="L1155" t="n">
         <v>1</v>
       </c>
@@ -40187,11 +39339,7 @@
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="inlineStr"/>
-      <c r="K1156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1156" t="inlineStr"/>
       <c r="L1156" t="n">
         <v>1</v>
       </c>
@@ -40224,11 +39372,7 @@
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
-      <c r="K1157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1157" t="inlineStr"/>
       <c r="L1157" t="n">
         <v>1</v>
       </c>
@@ -40261,11 +39405,7 @@
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
-      <c r="K1158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1158" t="inlineStr"/>
       <c r="L1158" t="n">
         <v>1</v>
       </c>
@@ -40298,11 +39438,7 @@
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
-      <c r="K1159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1159" t="inlineStr"/>
       <c r="L1159" t="n">
         <v>1</v>
       </c>
@@ -40335,11 +39471,7 @@
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
-      <c r="K1160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1160" t="inlineStr"/>
       <c r="L1160" t="n">
         <v>1</v>
       </c>
@@ -40372,11 +39504,7 @@
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
-      <c r="K1161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1161" t="inlineStr"/>
       <c r="L1161" t="n">
         <v>1</v>
       </c>
@@ -40409,11 +39537,7 @@
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="inlineStr"/>
-      <c r="K1162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1162" t="inlineStr"/>
       <c r="L1162" t="n">
         <v>1</v>
       </c>
@@ -40446,11 +39570,7 @@
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="inlineStr"/>
-      <c r="K1163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1163" t="inlineStr"/>
       <c r="L1163" t="n">
         <v>1</v>
       </c>
@@ -40483,11 +39603,7 @@
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="inlineStr"/>
-      <c r="K1164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1164" t="inlineStr"/>
       <c r="L1164" t="n">
         <v>1</v>
       </c>
@@ -40520,11 +39636,7 @@
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="inlineStr"/>
-      <c r="K1165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1165" t="inlineStr"/>
       <c r="L1165" t="n">
         <v>1</v>
       </c>
@@ -40557,11 +39669,7 @@
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="inlineStr"/>
-      <c r="K1166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1166" t="inlineStr"/>
       <c r="L1166" t="n">
         <v>1</v>
       </c>
@@ -40594,11 +39702,7 @@
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
-      <c r="K1167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1167" t="inlineStr"/>
       <c r="L1167" t="n">
         <v>1</v>
       </c>
@@ -40631,11 +39735,7 @@
       </c>
       <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="inlineStr"/>
-      <c r="K1168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1168" t="inlineStr"/>
       <c r="L1168" t="n">
         <v>1</v>
       </c>
@@ -40668,11 +39768,7 @@
       </c>
       <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="inlineStr"/>
-      <c r="K1169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1169" t="inlineStr"/>
       <c r="L1169" t="n">
         <v>1</v>
       </c>
@@ -40705,11 +39801,7 @@
       </c>
       <c r="I1170" t="inlineStr"/>
       <c r="J1170" t="inlineStr"/>
-      <c r="K1170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1170" t="inlineStr"/>
       <c r="L1170" t="n">
         <v>1</v>
       </c>
@@ -40742,11 +39834,7 @@
       </c>
       <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="inlineStr"/>
-      <c r="K1171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1171" t="inlineStr"/>
       <c r="L1171" t="n">
         <v>1</v>
       </c>
@@ -40779,11 +39867,7 @@
       </c>
       <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="inlineStr"/>
-      <c r="K1172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1172" t="inlineStr"/>
       <c r="L1172" t="n">
         <v>1</v>
       </c>
@@ -40816,11 +39900,7 @@
       </c>
       <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="inlineStr"/>
-      <c r="K1173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1173" t="inlineStr"/>
       <c r="L1173" t="n">
         <v>1</v>
       </c>
@@ -40853,11 +39933,7 @@
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="inlineStr"/>
-      <c r="K1174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1174" t="inlineStr"/>
       <c r="L1174" t="n">
         <v>1</v>
       </c>
@@ -40890,11 +39966,7 @@
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="inlineStr"/>
-      <c r="K1175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1175" t="inlineStr"/>
       <c r="L1175" t="n">
         <v>1</v>
       </c>
@@ -40927,11 +39999,7 @@
       </c>
       <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="inlineStr"/>
-      <c r="K1176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1176" t="inlineStr"/>
       <c r="L1176" t="n">
         <v>1</v>
       </c>
@@ -40964,11 +40032,7 @@
       </c>
       <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="inlineStr"/>
-      <c r="K1177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1177" t="inlineStr"/>
       <c r="L1177" t="n">
         <v>1</v>
       </c>
@@ -41001,11 +40065,7 @@
       </c>
       <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="inlineStr"/>
-      <c r="K1178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1178" t="inlineStr"/>
       <c r="L1178" t="n">
         <v>1</v>
       </c>
@@ -41038,11 +40098,7 @@
       </c>
       <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="inlineStr"/>
-      <c r="K1179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1179" t="inlineStr"/>
       <c r="L1179" t="n">
         <v>1</v>
       </c>
@@ -41075,11 +40131,7 @@
       </c>
       <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="inlineStr"/>
-      <c r="K1180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1180" t="inlineStr"/>
       <c r="L1180" t="n">
         <v>1</v>
       </c>
@@ -41112,11 +40164,7 @@
       </c>
       <c r="I1181" t="inlineStr"/>
       <c r="J1181" t="inlineStr"/>
-      <c r="K1181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1181" t="inlineStr"/>
       <c r="L1181" t="n">
         <v>1</v>
       </c>
@@ -41149,11 +40197,7 @@
       </c>
       <c r="I1182" t="inlineStr"/>
       <c r="J1182" t="inlineStr"/>
-      <c r="K1182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1182" t="inlineStr"/>
       <c r="L1182" t="n">
         <v>1</v>
       </c>
@@ -41186,11 +40230,7 @@
       </c>
       <c r="I1183" t="inlineStr"/>
       <c r="J1183" t="inlineStr"/>
-      <c r="K1183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1183" t="inlineStr"/>
       <c r="L1183" t="n">
         <v>1</v>
       </c>
@@ -41223,11 +40263,7 @@
       </c>
       <c r="I1184" t="inlineStr"/>
       <c r="J1184" t="inlineStr"/>
-      <c r="K1184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1184" t="inlineStr"/>
       <c r="L1184" t="n">
         <v>1</v>
       </c>
@@ -41260,11 +40296,7 @@
       </c>
       <c r="I1185" t="inlineStr"/>
       <c r="J1185" t="inlineStr"/>
-      <c r="K1185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1185" t="inlineStr"/>
       <c r="L1185" t="n">
         <v>1</v>
       </c>
@@ -41297,11 +40329,7 @@
       </c>
       <c r="I1186" t="inlineStr"/>
       <c r="J1186" t="inlineStr"/>
-      <c r="K1186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1186" t="inlineStr"/>
       <c r="L1186" t="n">
         <v>1</v>
       </c>
@@ -41334,11 +40362,7 @@
       </c>
       <c r="I1187" t="inlineStr"/>
       <c r="J1187" t="inlineStr"/>
-      <c r="K1187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1187" t="inlineStr"/>
       <c r="L1187" t="n">
         <v>1</v>
       </c>
@@ -41371,11 +40395,7 @@
       </c>
       <c r="I1188" t="inlineStr"/>
       <c r="J1188" t="inlineStr"/>
-      <c r="K1188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1188" t="inlineStr"/>
       <c r="L1188" t="n">
         <v>1</v>
       </c>
@@ -41404,15 +40424,15 @@
         <v>-663.7309313199999</v>
       </c>
       <c r="H1189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1189" t="inlineStr"/>
-      <c r="J1189" t="inlineStr"/>
-      <c r="K1189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1189" t="n">
+        <v>9133000</v>
+      </c>
+      <c r="J1189" t="n">
+        <v>9133000</v>
+      </c>
+      <c r="K1189" t="inlineStr"/>
       <c r="L1189" t="n">
         <v>1</v>
       </c>
@@ -41444,10 +40464,12 @@
         <v>0</v>
       </c>
       <c r="I1190" t="inlineStr"/>
-      <c r="J1190" t="inlineStr"/>
+      <c r="J1190" t="n">
+        <v>9133000</v>
+      </c>
       <c r="K1190" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L1190" t="n">
@@ -41481,10 +40503,12 @@
         <v>0</v>
       </c>
       <c r="I1191" t="inlineStr"/>
-      <c r="J1191" t="inlineStr"/>
+      <c r="J1191" t="n">
+        <v>9133000</v>
+      </c>
       <c r="K1191" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L1191" t="n">
@@ -41519,11 +40543,7 @@
       </c>
       <c r="I1192" t="inlineStr"/>
       <c r="J1192" t="inlineStr"/>
-      <c r="K1192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1192" t="inlineStr"/>
       <c r="L1192" t="n">
         <v>1</v>
       </c>
@@ -41556,11 +40576,7 @@
       </c>
       <c r="I1193" t="inlineStr"/>
       <c r="J1193" t="inlineStr"/>
-      <c r="K1193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1193" t="inlineStr"/>
       <c r="L1193" t="n">
         <v>1</v>
       </c>
@@ -41593,11 +40609,7 @@
       </c>
       <c r="I1194" t="inlineStr"/>
       <c r="J1194" t="inlineStr"/>
-      <c r="K1194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1194" t="inlineStr"/>
       <c r="L1194" t="n">
         <v>1</v>
       </c>
@@ -41630,11 +40642,7 @@
       </c>
       <c r="I1195" t="inlineStr"/>
       <c r="J1195" t="inlineStr"/>
-      <c r="K1195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1195" t="inlineStr"/>
       <c r="L1195" t="n">
         <v>1</v>
       </c>
@@ -41667,11 +40675,7 @@
       </c>
       <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="inlineStr"/>
-      <c r="K1196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1196" t="inlineStr"/>
       <c r="L1196" t="n">
         <v>1</v>
       </c>
@@ -41704,11 +40708,7 @@
       </c>
       <c r="I1197" t="inlineStr"/>
       <c r="J1197" t="inlineStr"/>
-      <c r="K1197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1197" t="inlineStr"/>
       <c r="L1197" t="n">
         <v>1</v>
       </c>
@@ -41741,11 +40741,7 @@
       </c>
       <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="inlineStr"/>
-      <c r="K1198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1198" t="inlineStr"/>
       <c r="L1198" t="n">
         <v>1</v>
       </c>
@@ -41778,11 +40774,7 @@
       </c>
       <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="inlineStr"/>
-      <c r="K1199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1199" t="inlineStr"/>
       <c r="L1199" t="n">
         <v>1</v>
       </c>
@@ -41815,11 +40807,7 @@
       </c>
       <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="inlineStr"/>
-      <c r="K1200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1200" t="inlineStr"/>
       <c r="L1200" t="n">
         <v>1</v>
       </c>
@@ -41852,11 +40840,7 @@
       </c>
       <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="inlineStr"/>
-      <c r="K1201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1201" t="inlineStr"/>
       <c r="L1201" t="n">
         <v>1</v>
       </c>
@@ -41889,11 +40873,7 @@
       </c>
       <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="inlineStr"/>
-      <c r="K1202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1202" t="inlineStr"/>
       <c r="L1202" t="n">
         <v>1</v>
       </c>
@@ -41926,11 +40906,7 @@
       </c>
       <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="inlineStr"/>
-      <c r="K1203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1203" t="inlineStr"/>
       <c r="L1203" t="n">
         <v>1</v>
       </c>
@@ -41963,11 +40939,7 @@
       </c>
       <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="inlineStr"/>
-      <c r="K1204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1204" t="inlineStr"/>
       <c r="L1204" t="n">
         <v>1</v>
       </c>
@@ -42000,11 +40972,7 @@
       </c>
       <c r="I1205" t="inlineStr"/>
       <c r="J1205" t="inlineStr"/>
-      <c r="K1205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1205" t="inlineStr"/>
       <c r="L1205" t="n">
         <v>1</v>
       </c>
@@ -42037,11 +41005,7 @@
       </c>
       <c r="I1206" t="inlineStr"/>
       <c r="J1206" t="inlineStr"/>
-      <c r="K1206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1206" t="inlineStr"/>
       <c r="L1206" t="n">
         <v>1</v>
       </c>
@@ -42074,11 +41038,7 @@
       </c>
       <c r="I1207" t="inlineStr"/>
       <c r="J1207" t="inlineStr"/>
-      <c r="K1207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1207" t="inlineStr"/>
       <c r="L1207" t="n">
         <v>1</v>
       </c>
@@ -42111,11 +41071,7 @@
       </c>
       <c r="I1208" t="inlineStr"/>
       <c r="J1208" t="inlineStr"/>
-      <c r="K1208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1208" t="inlineStr"/>
       <c r="L1208" t="n">
         <v>1</v>
       </c>
@@ -42148,11 +41104,7 @@
       </c>
       <c r="I1209" t="inlineStr"/>
       <c r="J1209" t="inlineStr"/>
-      <c r="K1209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1209" t="inlineStr"/>
       <c r="L1209" t="n">
         <v>1</v>
       </c>
@@ -42185,11 +41137,7 @@
       </c>
       <c r="I1210" t="inlineStr"/>
       <c r="J1210" t="inlineStr"/>
-      <c r="K1210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1210" t="inlineStr"/>
       <c r="L1210" t="n">
         <v>1</v>
       </c>
@@ -42222,11 +41170,7 @@
       </c>
       <c r="I1211" t="inlineStr"/>
       <c r="J1211" t="inlineStr"/>
-      <c r="K1211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1211" t="inlineStr"/>
       <c r="L1211" t="n">
         <v>1</v>
       </c>
@@ -42259,11 +41203,7 @@
       </c>
       <c r="I1212" t="inlineStr"/>
       <c r="J1212" t="inlineStr"/>
-      <c r="K1212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1212" t="inlineStr"/>
       <c r="L1212" t="n">
         <v>1</v>
       </c>
@@ -42296,11 +41236,7 @@
       </c>
       <c r="I1213" t="inlineStr"/>
       <c r="J1213" t="inlineStr"/>
-      <c r="K1213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1213" t="inlineStr"/>
       <c r="L1213" t="n">
         <v>1</v>
       </c>
@@ -42333,11 +41269,7 @@
       </c>
       <c r="I1214" t="inlineStr"/>
       <c r="J1214" t="inlineStr"/>
-      <c r="K1214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1214" t="inlineStr"/>
       <c r="L1214" t="n">
         <v>1</v>
       </c>
@@ -42370,11 +41302,7 @@
       </c>
       <c r="I1215" t="inlineStr"/>
       <c r="J1215" t="inlineStr"/>
-      <c r="K1215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1215" t="inlineStr"/>
       <c r="L1215" t="n">
         <v>1</v>
       </c>
@@ -42407,11 +41335,7 @@
       </c>
       <c r="I1216" t="inlineStr"/>
       <c r="J1216" t="inlineStr"/>
-      <c r="K1216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1216" t="inlineStr"/>
       <c r="L1216" t="n">
         <v>1</v>
       </c>
@@ -42444,11 +41368,7 @@
       </c>
       <c r="I1217" t="inlineStr"/>
       <c r="J1217" t="inlineStr"/>
-      <c r="K1217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1217" t="inlineStr"/>
       <c r="L1217" t="n">
         <v>1</v>
       </c>
@@ -42481,11 +41401,7 @@
       </c>
       <c r="I1218" t="inlineStr"/>
       <c r="J1218" t="inlineStr"/>
-      <c r="K1218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1218" t="inlineStr"/>
       <c r="L1218" t="n">
         <v>1</v>
       </c>
@@ -42518,11 +41434,7 @@
       </c>
       <c r="I1219" t="inlineStr"/>
       <c r="J1219" t="inlineStr"/>
-      <c r="K1219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1219" t="inlineStr"/>
       <c r="L1219" t="n">
         <v>1</v>
       </c>
@@ -42555,11 +41467,7 @@
       </c>
       <c r="I1220" t="inlineStr"/>
       <c r="J1220" t="inlineStr"/>
-      <c r="K1220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1220" t="inlineStr"/>
       <c r="L1220" t="n">
         <v>1</v>
       </c>
@@ -42592,11 +41500,7 @@
       </c>
       <c r="I1221" t="inlineStr"/>
       <c r="J1221" t="inlineStr"/>
-      <c r="K1221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1221" t="inlineStr"/>
       <c r="L1221" t="n">
         <v>1</v>
       </c>
@@ -42629,11 +41533,7 @@
       </c>
       <c r="I1222" t="inlineStr"/>
       <c r="J1222" t="inlineStr"/>
-      <c r="K1222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1222" t="inlineStr"/>
       <c r="L1222" t="n">
         <v>1</v>
       </c>
@@ -42666,11 +41566,7 @@
       </c>
       <c r="I1223" t="inlineStr"/>
       <c r="J1223" t="inlineStr"/>
-      <c r="K1223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1223" t="inlineStr"/>
       <c r="L1223" t="n">
         <v>1</v>
       </c>
@@ -42703,11 +41599,7 @@
       </c>
       <c r="I1224" t="inlineStr"/>
       <c r="J1224" t="inlineStr"/>
-      <c r="K1224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1224" t="inlineStr"/>
       <c r="L1224" t="n">
         <v>1</v>
       </c>
@@ -42740,11 +41632,7 @@
       </c>
       <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="inlineStr"/>
-      <c r="K1225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1225" t="inlineStr"/>
       <c r="L1225" t="n">
         <v>1</v>
       </c>
@@ -42777,11 +41665,7 @@
       </c>
       <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="inlineStr"/>
-      <c r="K1226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1226" t="inlineStr"/>
       <c r="L1226" t="n">
         <v>1</v>
       </c>
@@ -42814,11 +41698,7 @@
       </c>
       <c r="I1227" t="inlineStr"/>
       <c r="J1227" t="inlineStr"/>
-      <c r="K1227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1227" t="inlineStr"/>
       <c r="L1227" t="n">
         <v>1</v>
       </c>
@@ -42851,11 +41731,7 @@
       </c>
       <c r="I1228" t="inlineStr"/>
       <c r="J1228" t="inlineStr"/>
-      <c r="K1228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1228" t="inlineStr"/>
       <c r="L1228" t="n">
         <v>1</v>
       </c>
@@ -42888,11 +41764,7 @@
       </c>
       <c r="I1229" t="inlineStr"/>
       <c r="J1229" t="inlineStr"/>
-      <c r="K1229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1229" t="inlineStr"/>
       <c r="L1229" t="n">
         <v>1</v>
       </c>
@@ -42925,11 +41797,7 @@
       </c>
       <c r="I1230" t="inlineStr"/>
       <c r="J1230" t="inlineStr"/>
-      <c r="K1230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1230" t="inlineStr"/>
       <c r="L1230" t="n">
         <v>1</v>
       </c>
@@ -42962,11 +41830,7 @@
       </c>
       <c r="I1231" t="inlineStr"/>
       <c r="J1231" t="inlineStr"/>
-      <c r="K1231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1231" t="inlineStr"/>
       <c r="L1231" t="n">
         <v>1</v>
       </c>
@@ -42995,15 +41859,11 @@
         <v>-653.8863140599999</v>
       </c>
       <c r="H1232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1232" t="inlineStr"/>
       <c r="J1232" t="inlineStr"/>
-      <c r="K1232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1232" t="inlineStr"/>
       <c r="L1232" t="n">
         <v>1</v>
       </c>
@@ -43032,15 +41892,11 @@
         <v>-653.7256140599999</v>
       </c>
       <c r="H1233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="inlineStr"/>
-      <c r="K1233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1233" t="inlineStr"/>
       <c r="L1233" t="n">
         <v>1</v>
       </c>
@@ -43069,15 +41925,11 @@
         <v>-653.8782140599999</v>
       </c>
       <c r="H1234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="inlineStr"/>
-      <c r="K1234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1234" t="inlineStr"/>
       <c r="L1234" t="n">
         <v>1</v>
       </c>
@@ -43106,15 +41958,11 @@
         <v>-653.2310140599999</v>
       </c>
       <c r="H1235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="inlineStr"/>
-      <c r="K1235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1235" t="inlineStr"/>
       <c r="L1235" t="n">
         <v>1</v>
       </c>
@@ -43143,15 +41991,11 @@
         <v>-653.7318140599999</v>
       </c>
       <c r="H1236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1236" t="inlineStr"/>
       <c r="J1236" t="inlineStr"/>
-      <c r="K1236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1236" t="inlineStr"/>
       <c r="L1236" t="n">
         <v>1</v>
       </c>
@@ -43180,15 +42024,11 @@
         <v>-653.7382140599999</v>
       </c>
       <c r="H1237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1237" t="inlineStr"/>
       <c r="J1237" t="inlineStr"/>
-      <c r="K1237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1237" t="inlineStr"/>
       <c r="L1237" t="n">
         <v>1</v>
       </c>
@@ -43217,15 +42057,11 @@
         <v>-653.7382140599999</v>
       </c>
       <c r="H1238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1238" t="inlineStr"/>
       <c r="J1238" t="inlineStr"/>
-      <c r="K1238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1238" t="inlineStr"/>
       <c r="L1238" t="n">
         <v>1</v>
       </c>
@@ -43254,15 +42090,11 @@
         <v>-655.2907529299999</v>
       </c>
       <c r="H1239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1239" t="inlineStr"/>
       <c r="J1239" t="inlineStr"/>
-      <c r="K1239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1239" t="inlineStr"/>
       <c r="L1239" t="n">
         <v>1</v>
       </c>
@@ -43295,11 +42127,7 @@
       </c>
       <c r="I1240" t="inlineStr"/>
       <c r="J1240" t="inlineStr"/>
-      <c r="K1240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1240" t="inlineStr"/>
       <c r="L1240" t="n">
         <v>1</v>
       </c>
@@ -43332,11 +42160,7 @@
       </c>
       <c r="I1241" t="inlineStr"/>
       <c r="J1241" t="inlineStr"/>
-      <c r="K1241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1241" t="inlineStr"/>
       <c r="L1241" t="n">
         <v>1</v>
       </c>
@@ -43369,11 +42193,7 @@
       </c>
       <c r="I1242" t="inlineStr"/>
       <c r="J1242" t="inlineStr"/>
-      <c r="K1242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1242" t="inlineStr"/>
       <c r="L1242" t="n">
         <v>1</v>
       </c>
@@ -43406,11 +42226,7 @@
       </c>
       <c r="I1243" t="inlineStr"/>
       <c r="J1243" t="inlineStr"/>
-      <c r="K1243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1243" t="inlineStr"/>
       <c r="L1243" t="n">
         <v>1</v>
       </c>
@@ -43443,11 +42259,7 @@
       </c>
       <c r="I1244" t="inlineStr"/>
       <c r="J1244" t="inlineStr"/>
-      <c r="K1244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1244" t="inlineStr"/>
       <c r="L1244" t="n">
         <v>1</v>
       </c>
@@ -43480,11 +42292,7 @@
       </c>
       <c r="I1245" t="inlineStr"/>
       <c r="J1245" t="inlineStr"/>
-      <c r="K1245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1245" t="inlineStr"/>
       <c r="L1245" t="n">
         <v>1</v>
       </c>
@@ -43517,11 +42325,7 @@
       </c>
       <c r="I1246" t="inlineStr"/>
       <c r="J1246" t="inlineStr"/>
-      <c r="K1246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1246" t="inlineStr"/>
       <c r="L1246" t="n">
         <v>1</v>
       </c>
@@ -43554,11 +42358,7 @@
       </c>
       <c r="I1247" t="inlineStr"/>
       <c r="J1247" t="inlineStr"/>
-      <c r="K1247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1247" t="inlineStr"/>
       <c r="L1247" t="n">
         <v>1</v>
       </c>
@@ -43591,11 +42391,7 @@
       </c>
       <c r="I1248" t="inlineStr"/>
       <c r="J1248" t="inlineStr"/>
-      <c r="K1248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1248" t="inlineStr"/>
       <c r="L1248" t="n">
         <v>1</v>
       </c>
@@ -43628,11 +42424,7 @@
       </c>
       <c r="I1249" t="inlineStr"/>
       <c r="J1249" t="inlineStr"/>
-      <c r="K1249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1249" t="inlineStr"/>
       <c r="L1249" t="n">
         <v>1</v>
       </c>
@@ -43665,11 +42457,7 @@
       </c>
       <c r="I1250" t="inlineStr"/>
       <c r="J1250" t="inlineStr"/>
-      <c r="K1250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1250" t="inlineStr"/>
       <c r="L1250" t="n">
         <v>1</v>
       </c>
@@ -43702,11 +42490,7 @@
       </c>
       <c r="I1251" t="inlineStr"/>
       <c r="J1251" t="inlineStr"/>
-      <c r="K1251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1251" t="inlineStr"/>
       <c r="L1251" t="n">
         <v>1</v>
       </c>
@@ -43739,11 +42523,7 @@
       </c>
       <c r="I1252" t="inlineStr"/>
       <c r="J1252" t="inlineStr"/>
-      <c r="K1252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1252" t="inlineStr"/>
       <c r="L1252" t="n">
         <v>1</v>
       </c>
@@ -43776,11 +42556,7 @@
       </c>
       <c r="I1253" t="inlineStr"/>
       <c r="J1253" t="inlineStr"/>
-      <c r="K1253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1253" t="inlineStr"/>
       <c r="L1253" t="n">
         <v>1</v>
       </c>
@@ -43813,11 +42589,7 @@
       </c>
       <c r="I1254" t="inlineStr"/>
       <c r="J1254" t="inlineStr"/>
-      <c r="K1254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1254" t="inlineStr"/>
       <c r="L1254" t="n">
         <v>1</v>
       </c>
@@ -43850,11 +42622,7 @@
       </c>
       <c r="I1255" t="inlineStr"/>
       <c r="J1255" t="inlineStr"/>
-      <c r="K1255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1255" t="inlineStr"/>
       <c r="L1255" t="n">
         <v>1</v>
       </c>
@@ -43887,11 +42655,7 @@
       </c>
       <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="inlineStr"/>
-      <c r="K1256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1256" t="inlineStr"/>
       <c r="L1256" t="n">
         <v>1</v>
       </c>
@@ -43924,11 +42688,7 @@
       </c>
       <c r="I1257" t="inlineStr"/>
       <c r="J1257" t="inlineStr"/>
-      <c r="K1257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1257" t="inlineStr"/>
       <c r="L1257" t="n">
         <v>1</v>
       </c>
@@ -43961,11 +42721,7 @@
       </c>
       <c r="I1258" t="inlineStr"/>
       <c r="J1258" t="inlineStr"/>
-      <c r="K1258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1258" t="inlineStr"/>
       <c r="L1258" t="n">
         <v>1</v>
       </c>
@@ -43998,11 +42754,7 @@
       </c>
       <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="inlineStr"/>
-      <c r="K1259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1259" t="inlineStr"/>
       <c r="L1259" t="n">
         <v>1</v>
       </c>
@@ -44035,11 +42787,7 @@
       </c>
       <c r="I1260" t="inlineStr"/>
       <c r="J1260" t="inlineStr"/>
-      <c r="K1260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1260" t="inlineStr"/>
       <c r="L1260" t="n">
         <v>1</v>
       </c>
@@ -44072,11 +42820,7 @@
       </c>
       <c r="I1261" t="inlineStr"/>
       <c r="J1261" t="inlineStr"/>
-      <c r="K1261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1261" t="inlineStr"/>
       <c r="L1261" t="n">
         <v>1</v>
       </c>
@@ -44109,11 +42853,7 @@
       </c>
       <c r="I1262" t="inlineStr"/>
       <c r="J1262" t="inlineStr"/>
-      <c r="K1262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1262" t="inlineStr"/>
       <c r="L1262" t="n">
         <v>1</v>
       </c>
@@ -44146,11 +42886,7 @@
       </c>
       <c r="I1263" t="inlineStr"/>
       <c r="J1263" t="inlineStr"/>
-      <c r="K1263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1263" t="inlineStr"/>
       <c r="L1263" t="n">
         <v>1</v>
       </c>
@@ -44183,11 +42919,7 @@
       </c>
       <c r="I1264" t="inlineStr"/>
       <c r="J1264" t="inlineStr"/>
-      <c r="K1264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1264" t="inlineStr"/>
       <c r="L1264" t="n">
         <v>1</v>
       </c>
@@ -44220,11 +42952,7 @@
       </c>
       <c r="I1265" t="inlineStr"/>
       <c r="J1265" t="inlineStr"/>
-      <c r="K1265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1265" t="inlineStr"/>
       <c r="L1265" t="n">
         <v>1</v>
       </c>
@@ -44257,11 +42985,7 @@
       </c>
       <c r="I1266" t="inlineStr"/>
       <c r="J1266" t="inlineStr"/>
-      <c r="K1266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1266" t="inlineStr"/>
       <c r="L1266" t="n">
         <v>1</v>
       </c>
@@ -44294,11 +43018,7 @@
       </c>
       <c r="I1267" t="inlineStr"/>
       <c r="J1267" t="inlineStr"/>
-      <c r="K1267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1267" t="inlineStr"/>
       <c r="L1267" t="n">
         <v>1</v>
       </c>
@@ -44331,11 +43051,7 @@
       </c>
       <c r="I1268" t="inlineStr"/>
       <c r="J1268" t="inlineStr"/>
-      <c r="K1268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1268" t="inlineStr"/>
       <c r="L1268" t="n">
         <v>1</v>
       </c>
@@ -44368,11 +43084,7 @@
       </c>
       <c r="I1269" t="inlineStr"/>
       <c r="J1269" t="inlineStr"/>
-      <c r="K1269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1269" t="inlineStr"/>
       <c r="L1269" t="n">
         <v>1</v>
       </c>
@@ -44405,11 +43117,7 @@
       </c>
       <c r="I1270" t="inlineStr"/>
       <c r="J1270" t="inlineStr"/>
-      <c r="K1270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1270" t="inlineStr"/>
       <c r="L1270" t="n">
         <v>1</v>
       </c>
@@ -44442,11 +43150,7 @@
       </c>
       <c r="I1271" t="inlineStr"/>
       <c r="J1271" t="inlineStr"/>
-      <c r="K1271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1271" t="inlineStr"/>
       <c r="L1271" t="n">
         <v>1</v>
       </c>
@@ -44479,11 +43183,7 @@
       </c>
       <c r="I1272" t="inlineStr"/>
       <c r="J1272" t="inlineStr"/>
-      <c r="K1272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1272" t="inlineStr"/>
       <c r="L1272" t="n">
         <v>1</v>
       </c>
@@ -44516,11 +43216,7 @@
       </c>
       <c r="I1273" t="inlineStr"/>
       <c r="J1273" t="inlineStr"/>
-      <c r="K1273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1273" t="inlineStr"/>
       <c r="L1273" t="n">
         <v>1</v>
       </c>
@@ -44553,11 +43249,7 @@
       </c>
       <c r="I1274" t="inlineStr"/>
       <c r="J1274" t="inlineStr"/>
-      <c r="K1274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1274" t="inlineStr"/>
       <c r="L1274" t="n">
         <v>1</v>
       </c>
@@ -44590,11 +43282,7 @@
       </c>
       <c r="I1275" t="inlineStr"/>
       <c r="J1275" t="inlineStr"/>
-      <c r="K1275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1275" t="inlineStr"/>
       <c r="L1275" t="n">
         <v>1</v>
       </c>
@@ -44627,11 +43315,7 @@
       </c>
       <c r="I1276" t="inlineStr"/>
       <c r="J1276" t="inlineStr"/>
-      <c r="K1276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1276" t="inlineStr"/>
       <c r="L1276" t="n">
         <v>1</v>
       </c>
@@ -44664,11 +43348,7 @@
       </c>
       <c r="I1277" t="inlineStr"/>
       <c r="J1277" t="inlineStr"/>
-      <c r="K1277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1277" t="inlineStr"/>
       <c r="L1277" t="n">
         <v>1</v>
       </c>
@@ -44701,11 +43381,7 @@
       </c>
       <c r="I1278" t="inlineStr"/>
       <c r="J1278" t="inlineStr"/>
-      <c r="K1278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1278" t="inlineStr"/>
       <c r="L1278" t="n">
         <v>1</v>
       </c>
@@ -44738,11 +43414,7 @@
       </c>
       <c r="I1279" t="inlineStr"/>
       <c r="J1279" t="inlineStr"/>
-      <c r="K1279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1279" t="inlineStr"/>
       <c r="L1279" t="n">
         <v>1</v>
       </c>
@@ -44775,11 +43447,7 @@
       </c>
       <c r="I1280" t="inlineStr"/>
       <c r="J1280" t="inlineStr"/>
-      <c r="K1280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1280" t="inlineStr"/>
       <c r="L1280" t="n">
         <v>1</v>
       </c>
@@ -44812,11 +43480,7 @@
       </c>
       <c r="I1281" t="inlineStr"/>
       <c r="J1281" t="inlineStr"/>
-      <c r="K1281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1281" t="inlineStr"/>
       <c r="L1281" t="n">
         <v>1</v>
       </c>
@@ -44849,11 +43513,7 @@
       </c>
       <c r="I1282" t="inlineStr"/>
       <c r="J1282" t="inlineStr"/>
-      <c r="K1282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1282" t="inlineStr"/>
       <c r="L1282" t="n">
         <v>1</v>
       </c>
@@ -44886,11 +43546,7 @@
       </c>
       <c r="I1283" t="inlineStr"/>
       <c r="J1283" t="inlineStr"/>
-      <c r="K1283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1283" t="inlineStr"/>
       <c r="L1283" t="n">
         <v>1</v>
       </c>
@@ -44923,11 +43579,7 @@
       </c>
       <c r="I1284" t="inlineStr"/>
       <c r="J1284" t="inlineStr"/>
-      <c r="K1284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1284" t="inlineStr"/>
       <c r="L1284" t="n">
         <v>1</v>
       </c>
@@ -44960,11 +43612,7 @@
       </c>
       <c r="I1285" t="inlineStr"/>
       <c r="J1285" t="inlineStr"/>
-      <c r="K1285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1285" t="inlineStr"/>
       <c r="L1285" t="n">
         <v>1</v>
       </c>
@@ -44997,11 +43645,7 @@
       </c>
       <c r="I1286" t="inlineStr"/>
       <c r="J1286" t="inlineStr"/>
-      <c r="K1286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1286" t="inlineStr"/>
       <c r="L1286" t="n">
         <v>1</v>
       </c>
@@ -45034,11 +43678,7 @@
       </c>
       <c r="I1287" t="inlineStr"/>
       <c r="J1287" t="inlineStr"/>
-      <c r="K1287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1287" t="inlineStr"/>
       <c r="L1287" t="n">
         <v>1</v>
       </c>
@@ -45071,11 +43711,7 @@
       </c>
       <c r="I1288" t="inlineStr"/>
       <c r="J1288" t="inlineStr"/>
-      <c r="K1288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1288" t="inlineStr"/>
       <c r="L1288" t="n">
         <v>1</v>
       </c>
@@ -45108,11 +43744,7 @@
       </c>
       <c r="I1289" t="inlineStr"/>
       <c r="J1289" t="inlineStr"/>
-      <c r="K1289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1289" t="inlineStr"/>
       <c r="L1289" t="n">
         <v>1</v>
       </c>
@@ -45145,11 +43777,7 @@
       </c>
       <c r="I1290" t="inlineStr"/>
       <c r="J1290" t="inlineStr"/>
-      <c r="K1290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1290" t="inlineStr"/>
       <c r="L1290" t="n">
         <v>1</v>
       </c>
@@ -45182,11 +43810,7 @@
       </c>
       <c r="I1291" t="inlineStr"/>
       <c r="J1291" t="inlineStr"/>
-      <c r="K1291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1291" t="inlineStr"/>
       <c r="L1291" t="n">
         <v>1</v>
       </c>
@@ -45219,11 +43843,7 @@
       </c>
       <c r="I1292" t="inlineStr"/>
       <c r="J1292" t="inlineStr"/>
-      <c r="K1292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1292" t="inlineStr"/>
       <c r="L1292" t="n">
         <v>1</v>
       </c>
@@ -45256,11 +43876,7 @@
       </c>
       <c r="I1293" t="inlineStr"/>
       <c r="J1293" t="inlineStr"/>
-      <c r="K1293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1293" t="inlineStr"/>
       <c r="L1293" t="n">
         <v>1</v>
       </c>
@@ -45293,11 +43909,7 @@
       </c>
       <c r="I1294" t="inlineStr"/>
       <c r="J1294" t="inlineStr"/>
-      <c r="K1294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1294" t="inlineStr"/>
       <c r="L1294" t="n">
         <v>1</v>
       </c>
@@ -45330,11 +43942,7 @@
       </c>
       <c r="I1295" t="inlineStr"/>
       <c r="J1295" t="inlineStr"/>
-      <c r="K1295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1295" t="inlineStr"/>
       <c r="L1295" t="n">
         <v>1</v>
       </c>
@@ -45367,11 +43975,7 @@
       </c>
       <c r="I1296" t="inlineStr"/>
       <c r="J1296" t="inlineStr"/>
-      <c r="K1296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1296" t="inlineStr"/>
       <c r="L1296" t="n">
         <v>1</v>
       </c>
@@ -45404,11 +44008,7 @@
       </c>
       <c r="I1297" t="inlineStr"/>
       <c r="J1297" t="inlineStr"/>
-      <c r="K1297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1297" t="inlineStr"/>
       <c r="L1297" t="n">
         <v>1</v>
       </c>
@@ -45441,11 +44041,7 @@
       </c>
       <c r="I1298" t="inlineStr"/>
       <c r="J1298" t="inlineStr"/>
-      <c r="K1298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1298" t="inlineStr"/>
       <c r="L1298" t="n">
         <v>1</v>
       </c>
@@ -45478,11 +44074,7 @@
       </c>
       <c r="I1299" t="inlineStr"/>
       <c r="J1299" t="inlineStr"/>
-      <c r="K1299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1299" t="inlineStr"/>
       <c r="L1299" t="n">
         <v>1</v>
       </c>
@@ -45515,11 +44107,7 @@
       </c>
       <c r="I1300" t="inlineStr"/>
       <c r="J1300" t="inlineStr"/>
-      <c r="K1300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1300" t="inlineStr"/>
       <c r="L1300" t="n">
         <v>1</v>
       </c>
@@ -45552,11 +44140,7 @@
       </c>
       <c r="I1301" t="inlineStr"/>
       <c r="J1301" t="inlineStr"/>
-      <c r="K1301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1301" t="inlineStr"/>
       <c r="L1301" t="n">
         <v>1</v>
       </c>
@@ -45589,11 +44173,7 @@
       </c>
       <c r="I1302" t="inlineStr"/>
       <c r="J1302" t="inlineStr"/>
-      <c r="K1302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1302" t="inlineStr"/>
       <c r="L1302" t="n">
         <v>1</v>
       </c>
@@ -45626,11 +44206,7 @@
       </c>
       <c r="I1303" t="inlineStr"/>
       <c r="J1303" t="inlineStr"/>
-      <c r="K1303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1303" t="inlineStr"/>
       <c r="L1303" t="n">
         <v>1</v>
       </c>
@@ -45663,11 +44239,7 @@
       </c>
       <c r="I1304" t="inlineStr"/>
       <c r="J1304" t="inlineStr"/>
-      <c r="K1304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1304" t="inlineStr"/>
       <c r="L1304" t="n">
         <v>1</v>
       </c>
@@ -45700,11 +44272,7 @@
       </c>
       <c r="I1305" t="inlineStr"/>
       <c r="J1305" t="inlineStr"/>
-      <c r="K1305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1305" t="inlineStr"/>
       <c r="L1305" t="n">
         <v>1</v>
       </c>
@@ -45737,11 +44305,7 @@
       </c>
       <c r="I1306" t="inlineStr"/>
       <c r="J1306" t="inlineStr"/>
-      <c r="K1306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1306" t="inlineStr"/>
       <c r="L1306" t="n">
         <v>1</v>
       </c>
@@ -45774,11 +44338,7 @@
       </c>
       <c r="I1307" t="inlineStr"/>
       <c r="J1307" t="inlineStr"/>
-      <c r="K1307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1307" t="inlineStr"/>
       <c r="L1307" t="n">
         <v>1</v>
       </c>
@@ -45811,11 +44371,7 @@
       </c>
       <c r="I1308" t="inlineStr"/>
       <c r="J1308" t="inlineStr"/>
-      <c r="K1308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1308" t="inlineStr"/>
       <c r="L1308" t="n">
         <v>1</v>
       </c>
@@ -45848,11 +44404,7 @@
       </c>
       <c r="I1309" t="inlineStr"/>
       <c r="J1309" t="inlineStr"/>
-      <c r="K1309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1309" t="inlineStr"/>
       <c r="L1309" t="n">
         <v>1</v>
       </c>
@@ -45885,11 +44437,7 @@
       </c>
       <c r="I1310" t="inlineStr"/>
       <c r="J1310" t="inlineStr"/>
-      <c r="K1310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1310" t="inlineStr"/>
       <c r="L1310" t="n">
         <v>1</v>
       </c>
@@ -45922,11 +44470,7 @@
       </c>
       <c r="I1311" t="inlineStr"/>
       <c r="J1311" t="inlineStr"/>
-      <c r="K1311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1311" t="inlineStr"/>
       <c r="L1311" t="n">
         <v>1</v>
       </c>
@@ -45959,11 +44503,7 @@
       </c>
       <c r="I1312" t="inlineStr"/>
       <c r="J1312" t="inlineStr"/>
-      <c r="K1312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1312" t="inlineStr"/>
       <c r="L1312" t="n">
         <v>1</v>
       </c>
@@ -45996,11 +44536,7 @@
       </c>
       <c r="I1313" t="inlineStr"/>
       <c r="J1313" t="inlineStr"/>
-      <c r="K1313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1313" t="inlineStr"/>
       <c r="L1313" t="n">
         <v>1</v>
       </c>
@@ -46033,11 +44569,7 @@
       </c>
       <c r="I1314" t="inlineStr"/>
       <c r="J1314" t="inlineStr"/>
-      <c r="K1314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1314" t="inlineStr"/>
       <c r="L1314" t="n">
         <v>1</v>
       </c>
@@ -46070,11 +44602,7 @@
       </c>
       <c r="I1315" t="inlineStr"/>
       <c r="J1315" t="inlineStr"/>
-      <c r="K1315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1315" t="inlineStr"/>
       <c r="L1315" t="n">
         <v>1</v>
       </c>
@@ -46107,11 +44635,7 @@
       </c>
       <c r="I1316" t="inlineStr"/>
       <c r="J1316" t="inlineStr"/>
-      <c r="K1316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1316" t="inlineStr"/>
       <c r="L1316" t="n">
         <v>1</v>
       </c>
@@ -46144,11 +44668,7 @@
       </c>
       <c r="I1317" t="inlineStr"/>
       <c r="J1317" t="inlineStr"/>
-      <c r="K1317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1317" t="inlineStr"/>
       <c r="L1317" t="n">
         <v>1</v>
       </c>
@@ -46181,11 +44701,7 @@
       </c>
       <c r="I1318" t="inlineStr"/>
       <c r="J1318" t="inlineStr"/>
-      <c r="K1318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1318" t="inlineStr"/>
       <c r="L1318" t="n">
         <v>1</v>
       </c>
@@ -46218,17 +44734,13 @@
       </c>
       <c r="I1319" t="inlineStr"/>
       <c r="J1319" t="inlineStr"/>
-      <c r="K1319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1319" t="inlineStr"/>
       <c r="L1319" t="n">
         <v>1</v>
       </c>
       <c r="M1319" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>